--- a/Assets/05.DataTable/몬스터 스탯.xlsx
+++ b/Assets/05.DataTable/몬스터 스탯.xlsx
@@ -293,6 +293,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -540,184 +541,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>132</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>139</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>147</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>155</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>164</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>173</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>183</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>193</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>204</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>216</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>228</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>241</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>255</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>269</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>284</c:v>
+                  <c:v>569</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>300</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>317</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>335</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>354</c:v>
+                  <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>374</c:v>
+                  <c:v>749</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>396</c:v>
+                  <c:v>791</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>418</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>441</c:v>
+                  <c:v>883</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>466</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>493</c:v>
+                  <c:v>986</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>521</c:v>
+                  <c:v>1041</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>550</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>581</c:v>
+                  <c:v>1162</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>614</c:v>
+                  <c:v>1228</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>649</c:v>
+                  <c:v>1298</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>686</c:v>
+                  <c:v>1371</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>724</c:v>
+                  <c:v>1449</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>765</c:v>
+                  <c:v>1530</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>808</c:v>
+                  <c:v>1617</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>854</c:v>
+                  <c:v>1708</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>903</c:v>
+                  <c:v>1805</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>954</c:v>
+                  <c:v>1907</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1007</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1064</c:v>
+                  <c:v>2129</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1125</c:v>
+                  <c:v>2249</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1188</c:v>
+                  <c:v>2376</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1255</c:v>
+                  <c:v>2511</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1326</c:v>
+                  <c:v>2653</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1401</c:v>
+                  <c:v>2803</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1481</c:v>
+                  <c:v>2961</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1564</c:v>
+                  <c:v>3129</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1653</c:v>
+                  <c:v>3305</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1746</c:v>
+                  <c:v>3492</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1845</c:v>
+                  <c:v>3690</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1949</c:v>
+                  <c:v>3898</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2059</c:v>
+                  <c:v>4119</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2176</c:v>
+                  <c:v>4352</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2299</c:v>
+                  <c:v>4598</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2429</c:v>
+                  <c:v>4858</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2566</c:v>
+                  <c:v>5132</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>3083</c:v>
@@ -946,7 +947,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1009,7 +1009,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1087,184 +1086,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>47</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>49</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>52</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>55</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>58</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>61</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>65</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>69</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>72</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>77</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>81</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>85</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>90</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>95</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>101</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>106</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>112</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>119</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>126</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>133</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>140</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>148</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>156</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>165</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>175</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>184</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>195</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>206</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>218</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>230</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>243</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>257</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>308</c:v>
@@ -1493,7 +1492,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1556,7 +1554,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1634,64 +1631,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>190</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>279</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>348</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>432</c:v>
+                  <c:v>864</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>536</c:v>
+                  <c:v>1069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>630</c:v>
+                  <c:v>1262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>779</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>961</c:v>
+                  <c:v>1923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1183</c:v>
+                  <c:v>2366</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1394</c:v>
+                  <c:v>2789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1715</c:v>
+                  <c:v>3428</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2101</c:v>
+                  <c:v>4204</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2576</c:v>
+                  <c:v>5149</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3150</c:v>
+                  <c:v>6297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3713</c:v>
+                  <c:v>7428</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4536</c:v>
+                  <c:v>9074</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5535</c:v>
+                  <c:v>11070</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6528</c:v>
+                  <c:v>13056</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7698</c:v>
+                  <c:v>15396</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>9609</c:v>
@@ -1800,7 +1797,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1863,7 +1859,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1941,64 +1936,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>127</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>151</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>186</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>219</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>266</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>314</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>386</c:v>
+                  <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>452</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>552</c:v>
+                  <c:v>1107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>654</c:v>
+                  <c:v>1305</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>771</c:v>
+                  <c:v>1539</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>972</c:v>
@@ -2107,7 +2102,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2170,7 +2164,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2523,7 +2516,7 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2626,10 +2619,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6">
         <v>12</v>
@@ -2649,10 +2642,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C5" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6">
         <v>12</v>
@@ -2672,10 +2665,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="C6" s="5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6">
         <v>12</v>
@@ -2684,10 +2677,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="6">
-        <v>168</v>
+        <f>B6*2</f>
+        <v>334</v>
       </c>
       <c r="G6" s="6">
-        <v>22</v>
+        <f>C6*1.5</f>
+        <v>25.5</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1">
@@ -2695,10 +2690,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C7" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6">
         <v>12</v>
@@ -2718,10 +2713,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="C8" s="5">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6">
         <v>12</v>
@@ -2741,10 +2736,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="C9" s="5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6">
         <v>12</v>
@@ -2753,10 +2748,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>211</v>
+        <f t="shared" ref="F9:F72" si="0">B9*2</f>
+        <v>394</v>
       </c>
       <c r="G9" s="6">
-        <v>27</v>
+        <f t="shared" ref="G9:G72" si="1">C9*1.5</f>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1">
@@ -2764,10 +2761,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="5">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="C10" s="5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6">
         <v>12</v>
@@ -2787,10 +2784,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="5">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="C11" s="5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6">
         <v>12</v>
@@ -2810,10 +2807,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="5">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="C12" s="5">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6">
         <v>12</v>
@@ -2822,10 +2819,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="6">
-        <v>264</v>
+        <f t="shared" ref="F12:F75" si="2">B12*2</f>
+        <v>466</v>
       </c>
       <c r="G12" s="6">
-        <v>34</v>
+        <f t="shared" ref="G12:G75" si="3">C12*1.5</f>
+        <v>34.5</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1">
@@ -2833,10 +2832,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="5">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="C13" s="5">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6">
         <v>12</v>
@@ -2856,10 +2855,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="5">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="C14" s="5">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6">
         <v>12</v>
@@ -2879,10 +2878,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="5">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="C15" s="5">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D15" s="6">
         <v>12</v>
@@ -2891,10 +2890,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>311</v>
+        <f t="shared" ref="F15:F78" si="4">B15*2</f>
+        <v>550</v>
       </c>
       <c r="G15" s="6">
-        <v>40</v>
+        <f t="shared" ref="G15:G78" si="5">C15*1.5</f>
+        <v>40.5</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1">
@@ -2902,10 +2903,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="5">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="C16" s="5">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6">
         <v>12</v>
@@ -2925,10 +2926,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="5">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="C17" s="5">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6">
         <v>12</v>
@@ -2948,10 +2949,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="5">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="C18" s="5">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D18" s="6">
         <v>12</v>
@@ -2960,9 +2961,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="6">
-        <v>389</v>
+        <f t="shared" ref="F18:F81" si="6">B18*2</f>
+        <v>648</v>
       </c>
       <c r="G18" s="6">
+        <f t="shared" ref="G18:G81" si="7">C18*1.5</f>
         <v>48</v>
       </c>
     </row>
@@ -2971,10 +2974,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="5">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="C19" s="5">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D19" s="6">
         <v>15</v>
@@ -2994,10 +2997,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="5">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="C20" s="5">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D20" s="6">
         <v>15</v>
@@ -3017,10 +3020,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="5">
-        <v>255</v>
+        <v>382</v>
       </c>
       <c r="C21" s="5">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6">
         <v>15</v>
@@ -3029,10 +3032,12 @@
         <v>1</v>
       </c>
       <c r="F21" s="6">
-        <v>485</v>
+        <f t="shared" ref="F21:F84" si="8">B21*2</f>
+        <v>764</v>
       </c>
       <c r="G21" s="6">
-        <v>58</v>
+        <f t="shared" ref="G21:G84" si="9">C21*1.5</f>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1">
@@ -3040,10 +3045,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="5">
-        <v>269</v>
+        <v>404</v>
       </c>
       <c r="C22" s="5">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D22" s="6">
         <v>15</v>
@@ -3063,10 +3068,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="5">
-        <v>284</v>
+        <v>427</v>
       </c>
       <c r="C23" s="5">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D23" s="6">
         <v>15</v>
@@ -3086,10 +3091,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="5">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="C24" s="5">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D24" s="6">
         <v>15</v>
@@ -3098,10 +3103,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="6">
-        <v>600</v>
+        <f t="shared" ref="F24:F87" si="10">B24*2</f>
+        <v>902</v>
       </c>
       <c r="G24" s="6">
-        <v>69</v>
+        <f t="shared" ref="G24:G87" si="11">C24*1.5</f>
+        <v>67.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1">
@@ -3109,10 +3116,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="5">
-        <v>317</v>
+        <v>476</v>
       </c>
       <c r="C25" s="5">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D25" s="6">
         <v>15</v>
@@ -3132,10 +3139,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="5">
-        <v>335</v>
+        <v>503</v>
       </c>
       <c r="C26" s="5">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D26" s="6">
         <v>15</v>
@@ -3155,10 +3162,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="5">
-        <v>354</v>
+        <v>531</v>
       </c>
       <c r="C27" s="5">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D27" s="6">
         <v>15</v>
@@ -3167,10 +3174,12 @@
         <v>1</v>
       </c>
       <c r="F27" s="6">
-        <v>743</v>
+        <f t="shared" ref="F27:F90" si="12">B27*2</f>
+        <v>1062</v>
       </c>
       <c r="G27" s="6">
-        <v>84</v>
+        <f t="shared" ref="G27:G90" si="13">C27*1.5</f>
+        <v>79.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" customHeight="1">
@@ -3178,10 +3187,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="5">
-        <v>374</v>
+        <v>562</v>
       </c>
       <c r="C28" s="5">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D28" s="6">
         <v>15</v>
@@ -3201,10 +3210,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="5">
-        <v>396</v>
+        <v>593</v>
       </c>
       <c r="C29" s="5">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D29" s="6">
         <v>15</v>
@@ -3224,10 +3233,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="5">
-        <v>418</v>
+        <v>627</v>
       </c>
       <c r="C30" s="5">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D30" s="6">
         <v>15</v>
@@ -3236,10 +3245,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="6">
-        <v>878</v>
+        <f t="shared" ref="F30:F93" si="14">B30*2</f>
+        <v>1254</v>
       </c>
       <c r="G30" s="6">
-        <v>101</v>
+        <f t="shared" ref="G30:G93" si="15">C30*1.5</f>
+        <v>94.5</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" customHeight="1">
@@ -3247,10 +3258,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="5">
-        <v>441</v>
+        <v>662</v>
       </c>
       <c r="C31" s="5">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D31" s="6">
         <v>15</v>
@@ -3270,10 +3281,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="5">
-        <v>466</v>
+        <v>700</v>
       </c>
       <c r="C32" s="5">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D32" s="6">
         <v>15</v>
@@ -3293,10 +3304,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="5">
-        <v>493</v>
+        <v>739</v>
       </c>
       <c r="C33" s="5">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D33" s="6">
         <v>15</v>
@@ -3305,10 +3316,12 @@
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <v>1085</v>
+        <f t="shared" ref="F33:F96" si="16">B33*2</f>
+        <v>1478</v>
       </c>
       <c r="G33" s="6">
-        <v>123</v>
+        <f t="shared" ref="G33:G96" si="17">C33*1.5</f>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1">
@@ -3316,10 +3329,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="5">
-        <v>521</v>
+        <v>781</v>
       </c>
       <c r="C34" s="5">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D34" s="6">
         <v>23</v>
@@ -3339,10 +3352,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="5">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="C35" s="5">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D35" s="6">
         <v>23</v>
@@ -3362,10 +3375,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="5">
-        <v>581</v>
+        <v>872</v>
       </c>
       <c r="C36" s="5">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D36" s="6">
         <v>23</v>
@@ -3374,10 +3387,12 @@
         <v>1</v>
       </c>
       <c r="F36" s="6">
-        <v>1336</v>
+        <f t="shared" ref="F36:F99" si="18">B36*2</f>
+        <v>1744</v>
       </c>
       <c r="G36" s="6">
-        <v>145</v>
+        <f t="shared" ref="G36:G99" si="19">C36*1.5</f>
+        <v>130.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
@@ -3385,10 +3400,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="5">
-        <v>614</v>
+        <v>921</v>
       </c>
       <c r="C37" s="5">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D37" s="6">
         <v>23</v>
@@ -3408,10 +3423,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="5">
-        <v>649</v>
+        <v>973</v>
       </c>
       <c r="C38" s="5">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D38" s="6">
         <v>23</v>
@@ -3431,10 +3446,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="5">
-        <v>686</v>
+        <v>1028</v>
       </c>
       <c r="C39" s="5">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D39" s="6">
         <v>23</v>
@@ -3443,10 +3458,12 @@
         <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>1646</v>
+        <f t="shared" ref="F39:F102" si="20">B39*2</f>
+        <v>2056</v>
       </c>
       <c r="G39" s="6">
-        <v>179</v>
+        <f t="shared" ref="G39:G102" si="21">C39*1.5</f>
+        <v>154.5</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
@@ -3454,10 +3471,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="5">
-        <v>724</v>
+        <v>1086</v>
       </c>
       <c r="C40" s="5">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="D40" s="6">
         <v>23</v>
@@ -3477,10 +3494,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5">
-        <v>765</v>
+        <v>1148</v>
       </c>
       <c r="C41" s="5">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D41" s="6">
         <v>23</v>
@@ -3500,10 +3517,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="5">
-        <v>808</v>
+        <v>1213</v>
       </c>
       <c r="C42" s="5">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D42" s="6">
         <v>23</v>
@@ -3512,10 +3529,12 @@
         <v>1</v>
       </c>
       <c r="F42" s="6">
-        <v>1939</v>
+        <f t="shared" ref="F42:F105" si="22">B42*2</f>
+        <v>2426</v>
       </c>
       <c r="G42" s="6">
-        <v>211</v>
+        <f t="shared" ref="G42:G105" si="23">C42*1.5</f>
+        <v>181.5</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
@@ -3523,10 +3542,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="5">
-        <v>854</v>
+        <v>1281</v>
       </c>
       <c r="C43" s="5">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="D43" s="6">
         <v>23</v>
@@ -3546,10 +3565,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="5">
-        <v>903</v>
+        <v>1354</v>
       </c>
       <c r="C44" s="5">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="D44" s="6">
         <v>23</v>
@@ -3569,10 +3588,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="5">
-        <v>954</v>
+        <v>1430</v>
       </c>
       <c r="C45" s="5">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="D45" s="6">
         <v>23</v>
@@ -3581,10 +3600,12 @@
         <v>1</v>
       </c>
       <c r="F45" s="6">
-        <v>2385</v>
+        <f t="shared" ref="F45:F108" si="24">B45*2</f>
+        <v>2860</v>
       </c>
       <c r="G45" s="6">
-        <v>257</v>
+        <f t="shared" ref="G45:G108" si="25">C45*1.5</f>
+        <v>214.5</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
@@ -3592,10 +3613,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="5">
-        <v>1007</v>
+        <v>1511</v>
       </c>
       <c r="C46" s="5">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D46" s="6">
         <v>23</v>
@@ -3615,10 +3636,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="5">
-        <v>1064</v>
+        <v>1597</v>
       </c>
       <c r="C47" s="5">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="D47" s="6">
         <v>23</v>
@@ -3638,10 +3659,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="5">
-        <v>1125</v>
+        <v>1687</v>
       </c>
       <c r="C48" s="5">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="D48" s="6">
         <v>23</v>
@@ -3650,10 +3671,12 @@
         <v>1</v>
       </c>
       <c r="F48" s="6">
-        <v>2925</v>
+        <f t="shared" ref="F48:F111" si="26">B48*2</f>
+        <v>3374</v>
       </c>
       <c r="G48" s="6">
-        <v>302</v>
+        <f t="shared" ref="G48:G111" si="27">C48*1.5</f>
+        <v>253.5</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" customHeight="1">
@@ -3661,10 +3684,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="5">
-        <v>1188</v>
+        <v>1782</v>
       </c>
       <c r="C49" s="5">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="D49" s="6">
         <v>27</v>
@@ -3684,10 +3707,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="5">
-        <v>1255</v>
+        <v>1883</v>
       </c>
       <c r="C50" s="5">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="D50" s="6">
         <v>27</v>
@@ -3707,10 +3730,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="5">
-        <v>1326</v>
+        <v>1989</v>
       </c>
       <c r="C51" s="5">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="D51" s="6">
         <v>27</v>
@@ -3719,10 +3742,12 @@
         <v>1</v>
       </c>
       <c r="F51" s="6">
-        <v>3580</v>
+        <f t="shared" ref="F51:F114" si="28">B51*2</f>
+        <v>3978</v>
       </c>
       <c r="G51" s="6">
-        <v>372</v>
+        <f t="shared" ref="G51:G114" si="29">C51*1.5</f>
+        <v>298.5</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" customHeight="1">
@@ -3730,10 +3755,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="5">
-        <v>1401</v>
+        <v>2102</v>
       </c>
       <c r="C52" s="5">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="D52" s="6">
         <v>27</v>
@@ -3753,10 +3778,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="5">
-        <v>1481</v>
+        <v>2221</v>
       </c>
       <c r="C53" s="5">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="D53" s="6">
         <v>27</v>
@@ -3776,10 +3801,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="5">
-        <v>1564</v>
+        <v>2346</v>
       </c>
       <c r="C54" s="5">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="D54" s="6">
         <v>27</v>
@@ -3788,10 +3813,12 @@
         <v>1</v>
       </c>
       <c r="F54" s="6">
-        <v>4379</v>
+        <f t="shared" ref="F54:F117" si="30">B54*2</f>
+        <v>4692</v>
       </c>
       <c r="G54" s="6">
-        <v>437</v>
+        <f t="shared" ref="G54:G117" si="31">C54*1.5</f>
+        <v>352.5</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" customHeight="1">
@@ -3799,10 +3826,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="5">
-        <v>1653</v>
+        <v>2479</v>
       </c>
       <c r="C55" s="5">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="D55" s="6">
         <v>27</v>
@@ -3822,10 +3849,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="5">
-        <v>1746</v>
+        <v>2619</v>
       </c>
       <c r="C56" s="5">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="D56" s="6">
         <v>27</v>
@@ -3845,10 +3872,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="5">
-        <v>1845</v>
+        <v>2767</v>
       </c>
       <c r="C57" s="5">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="D57" s="6">
         <v>27</v>
@@ -3857,10 +3884,12 @@
         <v>1</v>
       </c>
       <c r="F57" s="6">
-        <v>5166</v>
+        <f t="shared" ref="F57:F120" si="32">B57*2</f>
+        <v>5534</v>
       </c>
       <c r="G57" s="6">
-        <v>534</v>
+        <f t="shared" ref="G57:G120" si="33">C57*1.5</f>
+        <v>415.5</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5" customHeight="1">
@@ -3868,10 +3897,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="5">
-        <v>1949</v>
+        <v>2924</v>
       </c>
       <c r="C58" s="5">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="D58" s="6">
         <v>27</v>
@@ -3891,10 +3920,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="5">
-        <v>2059</v>
+        <v>3089</v>
       </c>
       <c r="C59" s="5">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="D59" s="6">
         <v>27</v>
@@ -3914,10 +3943,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="5">
-        <v>2176</v>
+        <v>3264</v>
       </c>
       <c r="C60" s="5">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="D60" s="6">
         <v>27</v>
@@ -3926,10 +3955,12 @@
         <v>1</v>
       </c>
       <c r="F60" s="6">
-        <v>6310</v>
+        <f t="shared" ref="F60:F123" si="34">B60*2</f>
+        <v>6528</v>
       </c>
       <c r="G60" s="6">
-        <v>632</v>
+        <f t="shared" ref="G60:G123" si="35">C60*1.5</f>
+        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" customHeight="1">
@@ -3937,10 +3968,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="5">
-        <v>2299</v>
+        <v>3448</v>
       </c>
       <c r="C61" s="5">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="D61" s="6">
         <v>27</v>
@@ -3960,10 +3991,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="5">
-        <v>2429</v>
+        <v>3643</v>
       </c>
       <c r="C62" s="5">
-        <v>243</v>
+        <v>364</v>
       </c>
       <c r="D62" s="6">
         <v>27</v>
@@ -3983,10 +4014,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="5">
-        <v>2566</v>
+        <v>3849</v>
       </c>
       <c r="C63" s="5">
-        <v>257</v>
+        <v>385</v>
       </c>
       <c r="D63" s="6">
         <v>27</v>
@@ -3995,10 +4026,12 @@
         <v>1</v>
       </c>
       <c r="F63" s="6">
+        <f t="shared" ref="F63:F126" si="36">B63*2</f>
         <v>7698</v>
       </c>
       <c r="G63" s="6">
-        <v>771</v>
+        <f t="shared" ref="G63:G126" si="37">C63*1.5</f>
+        <v>577.5</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" customHeight="1">
@@ -4064,10 +4097,12 @@
         <v>1</v>
       </c>
       <c r="F66" s="6">
-        <v>9609</v>
+        <f t="shared" ref="F66:F129" si="38">B66*2</f>
+        <v>6406</v>
       </c>
       <c r="G66" s="6">
-        <v>972</v>
+        <f t="shared" ref="G66:G129" si="39">C66*1.5</f>
+        <v>486</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" customHeight="1">
@@ -4133,10 +4168,12 @@
         <v>1</v>
       </c>
       <c r="F69" s="6">
-        <v>10149</v>
-      </c>
-      <c r="G69" s="5">
-        <v>1044</v>
+        <f t="shared" ref="F69:F132" si="40">B69*2</f>
+        <v>6766</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" ref="G69:G132" si="41">C69*1.5</f>
+        <v>522</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.5" customHeight="1">
@@ -4202,10 +4239,12 @@
         <v>1</v>
       </c>
       <c r="F72" s="6">
-        <v>10689</v>
-      </c>
-      <c r="G72" s="5">
-        <v>1116</v>
+        <f t="shared" ref="F72:F135" si="42">B72*2</f>
+        <v>7126</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" ref="G72:G135" si="43">C72*1.5</f>
+        <v>558</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5" customHeight="1">
@@ -4271,10 +4310,12 @@
         <v>1</v>
       </c>
       <c r="F75" s="6">
-        <v>11229</v>
-      </c>
-      <c r="G75" s="5">
-        <v>1188</v>
+        <f t="shared" ref="F75:F138" si="44">B75*2</f>
+        <v>7486</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" ref="G75:G138" si="45">C75*1.5</f>
+        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" customHeight="1">
@@ -4340,10 +4381,12 @@
         <v>1</v>
       </c>
       <c r="F78" s="6">
-        <v>11769</v>
-      </c>
-      <c r="G78" s="5">
-        <v>1260</v>
+        <f t="shared" ref="F78:F141" si="46">B78*2</f>
+        <v>7846</v>
+      </c>
+      <c r="G78" s="6">
+        <f t="shared" ref="G78:G141" si="47">C78*1.5</f>
+        <v>630</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" customHeight="1">
@@ -4409,10 +4452,12 @@
         <v>1</v>
       </c>
       <c r="F81" s="6">
-        <v>12309</v>
-      </c>
-      <c r="G81" s="5">
-        <v>1332</v>
+        <f t="shared" ref="F81:F144" si="48">B81*2</f>
+        <v>8206</v>
+      </c>
+      <c r="G81" s="6">
+        <f t="shared" ref="G81:G144" si="49">C81*1.5</f>
+        <v>666</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.5" customHeight="1">
@@ -4478,10 +4523,12 @@
         <v>1</v>
       </c>
       <c r="F84" s="6">
-        <v>12849</v>
-      </c>
-      <c r="G84" s="5">
-        <v>1404</v>
+        <f t="shared" ref="F84:F147" si="50">B84*2</f>
+        <v>8566</v>
+      </c>
+      <c r="G84" s="6">
+        <f t="shared" ref="G84:G147" si="51">C84*1.5</f>
+        <v>702</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.5" customHeight="1">
@@ -4547,10 +4594,12 @@
         <v>1</v>
       </c>
       <c r="F87" s="6">
-        <v>17925</v>
-      </c>
-      <c r="G87" s="5">
-        <v>2484</v>
+        <f t="shared" ref="F87:F150" si="52">B87*2</f>
+        <v>11950</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" ref="G87:G150" si="53">C87*1.5</f>
+        <v>1242</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" customHeight="1">
@@ -4616,10 +4665,12 @@
         <v>1</v>
       </c>
       <c r="F90" s="6">
-        <v>18627</v>
-      </c>
-      <c r="G90" s="5">
-        <v>2592</v>
+        <f t="shared" ref="F90:F153" si="54">B90*2</f>
+        <v>12418</v>
+      </c>
+      <c r="G90" s="6">
+        <f t="shared" ref="G90:G153" si="55">C90*1.5</f>
+        <v>1296</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="16.5" customHeight="1">
@@ -4685,10 +4736,12 @@
         <v>1</v>
       </c>
       <c r="F93" s="6">
-        <v>19329</v>
-      </c>
-      <c r="G93" s="5">
-        <v>2700</v>
+        <f t="shared" ref="F93:F156" si="56">B93*2</f>
+        <v>12886</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" ref="G93:G156" si="57">C93*1.5</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="16.5" customHeight="1">
@@ -4754,10 +4807,12 @@
         <v>1</v>
       </c>
       <c r="F96" s="6">
-        <v>20031</v>
-      </c>
-      <c r="G96" s="5">
-        <v>2808</v>
+        <f t="shared" ref="F96:F159" si="58">B96*2</f>
+        <v>13354</v>
+      </c>
+      <c r="G96" s="6">
+        <f t="shared" ref="G96:G159" si="59">C96*1.5</f>
+        <v>1404</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="16.5" customHeight="1">
@@ -4823,10 +4878,12 @@
         <v>1</v>
       </c>
       <c r="F99" s="6">
-        <v>20733</v>
-      </c>
-      <c r="G99" s="5">
-        <v>2916</v>
+        <f t="shared" ref="F99:F162" si="60">B99*2</f>
+        <v>13822</v>
+      </c>
+      <c r="G99" s="6">
+        <f t="shared" ref="G99:G162" si="61">C99*1.5</f>
+        <v>1458</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16.5" customHeight="1">
@@ -4892,10 +4949,12 @@
         <v>1</v>
       </c>
       <c r="F102" s="6">
-        <v>21435</v>
-      </c>
-      <c r="G102" s="5">
-        <v>3024</v>
+        <f t="shared" ref="F102:F165" si="62">B102*2</f>
+        <v>14290</v>
+      </c>
+      <c r="G102" s="6">
+        <f t="shared" ref="G102:G165" si="63">C102*1.5</f>
+        <v>1512</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="16.5" customHeight="1">
@@ -4961,10 +5020,12 @@
         <v>1</v>
       </c>
       <c r="F105" s="6">
-        <v>22137</v>
-      </c>
-      <c r="G105" s="5">
-        <v>3132</v>
+        <f t="shared" ref="F105:F168" si="64">B105*2</f>
+        <v>14758</v>
+      </c>
+      <c r="G105" s="6">
+        <f t="shared" ref="G105:G168" si="65">C105*1.5</f>
+        <v>1566</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="16.5" customHeight="1">
@@ -5030,10 +5091,12 @@
         <v>1</v>
       </c>
       <c r="F108" s="6">
-        <v>22839</v>
-      </c>
-      <c r="G108" s="5">
-        <v>3240</v>
+        <f t="shared" ref="F108:F171" si="66">B108*2</f>
+        <v>15226</v>
+      </c>
+      <c r="G108" s="6">
+        <f t="shared" ref="G108:G171" si="67">C108*1.5</f>
+        <v>1620</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="16.5" customHeight="1">
@@ -5099,10 +5162,12 @@
         <v>1</v>
       </c>
       <c r="F111" s="6">
-        <v>23541</v>
-      </c>
-      <c r="G111" s="5">
-        <v>3348</v>
+        <f t="shared" ref="F111:F174" si="68">B111*2</f>
+        <v>15694</v>
+      </c>
+      <c r="G111" s="6">
+        <f t="shared" ref="G111:G174" si="69">C111*1.5</f>
+        <v>1674</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="16.5" customHeight="1">
@@ -5168,10 +5233,12 @@
         <v>1</v>
       </c>
       <c r="F114" s="6">
-        <v>24243</v>
-      </c>
-      <c r="G114" s="5">
-        <v>3456</v>
+        <f t="shared" ref="F114:F177" si="70">B114*2</f>
+        <v>16162</v>
+      </c>
+      <c r="G114" s="6">
+        <f t="shared" ref="G114:G177" si="71">C114*1.5</f>
+        <v>1728</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="16.5" customHeight="1">
@@ -5237,10 +5304,12 @@
         <v>1</v>
       </c>
       <c r="F117" s="6">
-        <v>24945</v>
-      </c>
-      <c r="G117" s="5">
-        <v>3564</v>
+        <f t="shared" ref="F117:F180" si="72">B117*2</f>
+        <v>16630</v>
+      </c>
+      <c r="G117" s="6">
+        <f t="shared" ref="G117:G180" si="73">C117*1.5</f>
+        <v>1782</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="16.5" customHeight="1">
@@ -5306,10 +5375,12 @@
         <v>1</v>
       </c>
       <c r="F120" s="6">
-        <v>25647</v>
-      </c>
-      <c r="G120" s="5">
-        <v>3672</v>
+        <f t="shared" ref="F120:F183" si="74">B120*2</f>
+        <v>17098</v>
+      </c>
+      <c r="G120" s="6">
+        <f t="shared" ref="G120:G183" si="75">C120*1.5</f>
+        <v>1836</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="16.5" customHeight="1">
@@ -5375,10 +5446,12 @@
         <v>1</v>
       </c>
       <c r="F123" s="6">
-        <v>26349</v>
-      </c>
-      <c r="G123" s="5">
-        <v>3780</v>
+        <f t="shared" ref="F123:F186" si="76">B123*2</f>
+        <v>17566</v>
+      </c>
+      <c r="G123" s="6">
+        <f t="shared" ref="G123:G186" si="77">C123*1.5</f>
+        <v>1890</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="16.5" customHeight="1">
@@ -5444,10 +5517,12 @@
         <v>1</v>
       </c>
       <c r="F126" s="6">
-        <v>27051</v>
-      </c>
-      <c r="G126" s="5">
-        <v>3888</v>
+        <f t="shared" ref="F126:F189" si="78">B126*2</f>
+        <v>18034</v>
+      </c>
+      <c r="G126" s="6">
+        <f t="shared" ref="G126:G189" si="79">C126*1.5</f>
+        <v>1944</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="16.5" customHeight="1">
@@ -5513,10 +5588,12 @@
         <v>1</v>
       </c>
       <c r="F129" s="6">
-        <v>27753</v>
-      </c>
-      <c r="G129" s="5">
-        <v>3996</v>
+        <f t="shared" ref="F129:F192" si="80">B129*2</f>
+        <v>18502</v>
+      </c>
+      <c r="G129" s="6">
+        <f t="shared" ref="G129:G192" si="81">C129*1.5</f>
+        <v>1998</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="16.5" customHeight="1">
@@ -5582,10 +5659,12 @@
         <v>1</v>
       </c>
       <c r="F132" s="6">
-        <v>28455</v>
-      </c>
-      <c r="G132" s="5">
-        <v>4104</v>
+        <f t="shared" ref="F132:F195" si="82">B132*2</f>
+        <v>18970</v>
+      </c>
+      <c r="G132" s="6">
+        <f t="shared" ref="G132:G195" si="83">C132*1.5</f>
+        <v>2052</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="16.5" customHeight="1">
@@ -5651,10 +5730,12 @@
         <v>1</v>
       </c>
       <c r="F135" s="6">
-        <v>29157</v>
-      </c>
-      <c r="G135" s="5">
-        <v>4212</v>
+        <f t="shared" ref="F135:F198" si="84">B135*2</f>
+        <v>19438</v>
+      </c>
+      <c r="G135" s="6">
+        <f t="shared" ref="G135:G198" si="85">C135*1.5</f>
+        <v>2106</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="16.5" customHeight="1">
@@ -5720,10 +5801,12 @@
         <v>1</v>
       </c>
       <c r="F138" s="6">
-        <v>29859</v>
-      </c>
-      <c r="G138" s="5">
-        <v>4320</v>
+        <f t="shared" ref="F138:F201" si="86">B138*2</f>
+        <v>19906</v>
+      </c>
+      <c r="G138" s="6">
+        <f t="shared" ref="G138:G201" si="87">C138*1.5</f>
+        <v>2160</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="16.5" customHeight="1">
@@ -5789,10 +5872,12 @@
         <v>1</v>
       </c>
       <c r="F141" s="6">
-        <v>30561</v>
-      </c>
-      <c r="G141" s="5">
-        <v>4428</v>
+        <f t="shared" ref="F141:F204" si="88">B141*2</f>
+        <v>20374</v>
+      </c>
+      <c r="G141" s="6">
+        <f t="shared" ref="G141:G204" si="89">C141*1.5</f>
+        <v>2214</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="16.5" customHeight="1">
@@ -5858,10 +5943,12 @@
         <v>1</v>
       </c>
       <c r="F144" s="6">
-        <v>31263</v>
-      </c>
-      <c r="G144" s="5">
-        <v>4536</v>
+        <f t="shared" ref="F144:F207" si="90">B144*2</f>
+        <v>20842</v>
+      </c>
+      <c r="G144" s="6">
+        <f t="shared" ref="G144:G207" si="91">C144*1.5</f>
+        <v>2268</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="16.5" customHeight="1">
@@ -5927,10 +6014,12 @@
         <v>1</v>
       </c>
       <c r="F147" s="6">
-        <v>31965</v>
-      </c>
-      <c r="G147" s="5">
-        <v>4644</v>
+        <f t="shared" ref="F147:F210" si="92">B147*2</f>
+        <v>21310</v>
+      </c>
+      <c r="G147" s="6">
+        <f t="shared" ref="G147:G210" si="93">C147*1.5</f>
+        <v>2322</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="16.5" customHeight="1">
@@ -5996,10 +6085,12 @@
         <v>1</v>
       </c>
       <c r="F150" s="6">
-        <v>32667</v>
-      </c>
-      <c r="G150" s="5">
-        <v>4752</v>
+        <f t="shared" ref="F150:F213" si="94">B150*2</f>
+        <v>21778</v>
+      </c>
+      <c r="G150" s="6">
+        <f t="shared" ref="G150:G213" si="95">C150*1.5</f>
+        <v>2376</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="16.5" customHeight="1">
@@ -6065,10 +6156,12 @@
         <v>1</v>
       </c>
       <c r="F153" s="6">
-        <v>33369</v>
-      </c>
-      <c r="G153" s="5">
-        <v>4860</v>
+        <f t="shared" ref="F153:F216" si="96">B153*2</f>
+        <v>22246</v>
+      </c>
+      <c r="G153" s="6">
+        <f t="shared" ref="G153:G216" si="97">C153*1.5</f>
+        <v>2430</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="16.5" customHeight="1">
@@ -6134,10 +6227,12 @@
         <v>1</v>
       </c>
       <c r="F156" s="6">
-        <v>34071</v>
-      </c>
-      <c r="G156" s="5">
-        <v>4968</v>
+        <f t="shared" ref="F156:F219" si="98">B156*2</f>
+        <v>22714</v>
+      </c>
+      <c r="G156" s="6">
+        <f t="shared" ref="G156:G219" si="99">C156*1.5</f>
+        <v>2484</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="16.5" customHeight="1">
@@ -6203,10 +6298,12 @@
         <v>1</v>
       </c>
       <c r="F159" s="6">
-        <v>34773</v>
-      </c>
-      <c r="G159" s="5">
-        <v>5076</v>
+        <f t="shared" ref="F159:F222" si="100">B159*2</f>
+        <v>23182</v>
+      </c>
+      <c r="G159" s="6">
+        <f t="shared" ref="G159:G222" si="101">C159*1.5</f>
+        <v>2538</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="16.5" customHeight="1">
@@ -6272,10 +6369,12 @@
         <v>1</v>
       </c>
       <c r="F162" s="6">
-        <v>35475</v>
-      </c>
-      <c r="G162" s="5">
-        <v>5184</v>
+        <f t="shared" ref="F162:F225" si="102">B162*2</f>
+        <v>23650</v>
+      </c>
+      <c r="G162" s="6">
+        <f t="shared" ref="G162:G225" si="103">C162*1.5</f>
+        <v>2592</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="16.5" customHeight="1">
@@ -6341,10 +6440,12 @@
         <v>1</v>
       </c>
       <c r="F165" s="6">
-        <v>36177</v>
-      </c>
-      <c r="G165" s="5">
-        <v>5292</v>
+        <f t="shared" ref="F165:F228" si="104">B165*2</f>
+        <v>24118</v>
+      </c>
+      <c r="G165" s="6">
+        <f t="shared" ref="G165:G228" si="105">C165*1.5</f>
+        <v>2646</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="16.5" customHeight="1">
@@ -6410,10 +6511,12 @@
         <v>1</v>
       </c>
       <c r="F168" s="6">
-        <v>36879</v>
-      </c>
-      <c r="G168" s="5">
-        <v>5400</v>
+        <f t="shared" ref="F168:F231" si="106">B168*2</f>
+        <v>24586</v>
+      </c>
+      <c r="G168" s="6">
+        <f t="shared" ref="G168:G231" si="107">C168*1.5</f>
+        <v>2700</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="16.5" customHeight="1">
@@ -6479,10 +6582,12 @@
         <v>1</v>
       </c>
       <c r="F171" s="6">
-        <v>37581</v>
-      </c>
-      <c r="G171" s="5">
-        <v>5508</v>
+        <f t="shared" ref="F171:F234" si="108">B171*2</f>
+        <v>25054</v>
+      </c>
+      <c r="G171" s="6">
+        <f t="shared" ref="G171:G234" si="109">C171*1.5</f>
+        <v>2754</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="16.5" customHeight="1">
@@ -6548,10 +6653,12 @@
         <v>1</v>
       </c>
       <c r="F174" s="6">
-        <v>38283</v>
-      </c>
-      <c r="G174" s="5">
-        <v>5616</v>
+        <f t="shared" ref="F174:F237" si="110">B174*2</f>
+        <v>25522</v>
+      </c>
+      <c r="G174" s="6">
+        <f t="shared" ref="G174:G237" si="111">C174*1.5</f>
+        <v>2808</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="16.5" customHeight="1">
@@ -6617,10 +6724,12 @@
         <v>1</v>
       </c>
       <c r="F177" s="6">
-        <v>38985</v>
-      </c>
-      <c r="G177" s="5">
-        <v>5724</v>
+        <f t="shared" ref="F177:F240" si="112">B177*2</f>
+        <v>25990</v>
+      </c>
+      <c r="G177" s="6">
+        <f t="shared" ref="G177:G240" si="113">C177*1.5</f>
+        <v>2862</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="16.5" customHeight="1">
@@ -6686,10 +6795,12 @@
         <v>1</v>
       </c>
       <c r="F180" s="6">
-        <v>39687</v>
-      </c>
-      <c r="G180" s="5">
-        <v>5832</v>
+        <f t="shared" ref="F180:F243" si="114">B180*2</f>
+        <v>26458</v>
+      </c>
+      <c r="G180" s="6">
+        <f t="shared" ref="G180:G243" si="115">C180*1.5</f>
+        <v>2916</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="16.5" customHeight="1">
@@ -6755,10 +6866,12 @@
         <v>1</v>
       </c>
       <c r="F183" s="6">
-        <v>40389</v>
-      </c>
-      <c r="G183" s="5">
-        <v>5940</v>
+        <f t="shared" ref="F183:F246" si="116">B183*2</f>
+        <v>26926</v>
+      </c>
+      <c r="G183" s="6">
+        <f t="shared" ref="G183:G246" si="117">C183*1.5</f>
+        <v>2970</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="16.5" customHeight="1">
@@ -6824,10 +6937,12 @@
         <v>1</v>
       </c>
       <c r="F186" s="6">
-        <v>41091</v>
-      </c>
-      <c r="G186" s="5">
-        <v>6048</v>
+        <f t="shared" ref="F186:F249" si="118">B186*2</f>
+        <v>27394</v>
+      </c>
+      <c r="G186" s="6">
+        <f t="shared" ref="G186:G249" si="119">C186*1.5</f>
+        <v>3024</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="16.5" customHeight="1">
@@ -6893,10 +7008,12 @@
         <v>1</v>
       </c>
       <c r="F189" s="6">
-        <v>41793</v>
-      </c>
-      <c r="G189" s="5">
-        <v>6156</v>
+        <f t="shared" ref="F189:F252" si="120">B189*2</f>
+        <v>27862</v>
+      </c>
+      <c r="G189" s="6">
+        <f t="shared" ref="G189:G252" si="121">C189*1.5</f>
+        <v>3078</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="16.5" customHeight="1">
@@ -6962,10 +7079,12 @@
         <v>1</v>
       </c>
       <c r="F192" s="6">
-        <v>42495</v>
-      </c>
-      <c r="G192" s="5">
-        <v>6264</v>
+        <f t="shared" ref="F192:F255" si="122">B192*2</f>
+        <v>28330</v>
+      </c>
+      <c r="G192" s="6">
+        <f t="shared" ref="G192:G255" si="123">C192*1.5</f>
+        <v>3132</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="16.5" customHeight="1">
@@ -7031,10 +7150,12 @@
         <v>1</v>
       </c>
       <c r="F195" s="6">
-        <v>43197</v>
-      </c>
-      <c r="G195" s="5">
-        <v>6372</v>
+        <f t="shared" ref="F195:F258" si="124">B195*2</f>
+        <v>28798</v>
+      </c>
+      <c r="G195" s="6">
+        <f t="shared" ref="G195:G258" si="125">C195*1.5</f>
+        <v>3186</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="16.5" customHeight="1">
@@ -7100,10 +7221,12 @@
         <v>1</v>
       </c>
       <c r="F198" s="6">
-        <v>43899</v>
-      </c>
-      <c r="G198" s="5">
-        <v>6480</v>
+        <f t="shared" ref="F198:F261" si="126">B198*2</f>
+        <v>29266</v>
+      </c>
+      <c r="G198" s="6">
+        <f t="shared" ref="G198:G261" si="127">C198*1.5</f>
+        <v>3240</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="16.5" customHeight="1">
@@ -7169,10 +7292,12 @@
         <v>1</v>
       </c>
       <c r="F201" s="6">
-        <v>44601</v>
-      </c>
-      <c r="G201" s="5">
-        <v>6588</v>
+        <f t="shared" ref="F201:F264" si="128">B201*2</f>
+        <v>29734</v>
+      </c>
+      <c r="G201" s="6">
+        <f t="shared" ref="G201:G264" si="129">C201*1.5</f>
+        <v>3294</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="16.5" customHeight="1">
@@ -7238,10 +7363,12 @@
         <v>1</v>
       </c>
       <c r="F204" s="6">
-        <v>45303</v>
-      </c>
-      <c r="G204" s="5">
-        <v>6696</v>
+        <f t="shared" ref="F204:F235" si="130">B204*2</f>
+        <v>30202</v>
+      </c>
+      <c r="G204" s="6">
+        <f t="shared" ref="G204:G235" si="131">C204*1.5</f>
+        <v>3348</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="16.5" customHeight="1">
@@ -7307,10 +7434,12 @@
         <v>1</v>
       </c>
       <c r="F207" s="6">
-        <v>46005</v>
-      </c>
-      <c r="G207" s="5">
-        <v>6804</v>
+        <f t="shared" ref="F207:F238" si="132">B207*2</f>
+        <v>30670</v>
+      </c>
+      <c r="G207" s="6">
+        <f t="shared" ref="G207:G238" si="133">C207*1.5</f>
+        <v>3402</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="16.5" customHeight="1">
@@ -7376,10 +7505,12 @@
         <v>1</v>
       </c>
       <c r="F210" s="6">
-        <v>46707</v>
-      </c>
-      <c r="G210" s="5">
-        <v>6912</v>
+        <f t="shared" ref="F210:F241" si="134">B210*2</f>
+        <v>31138</v>
+      </c>
+      <c r="G210" s="6">
+        <f t="shared" ref="G210:G241" si="135">C210*1.5</f>
+        <v>3456</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="16.5" customHeight="1">
@@ -7445,10 +7576,12 @@
         <v>1</v>
       </c>
       <c r="F213" s="6">
-        <v>47409</v>
-      </c>
-      <c r="G213" s="5">
-        <v>7020</v>
+        <f t="shared" ref="F213:F244" si="136">B213*2</f>
+        <v>31606</v>
+      </c>
+      <c r="G213" s="6">
+        <f t="shared" ref="G213:G244" si="137">C213*1.5</f>
+        <v>3510</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="16.5" customHeight="1">
@@ -7514,10 +7647,12 @@
         <v>1</v>
       </c>
       <c r="F216" s="6">
-        <v>48111</v>
-      </c>
-      <c r="G216" s="5">
-        <v>7128</v>
+        <f t="shared" ref="F216:F247" si="138">B216*2</f>
+        <v>32074</v>
+      </c>
+      <c r="G216" s="6">
+        <f t="shared" ref="G216:G247" si="139">C216*1.5</f>
+        <v>3564</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="16.5" customHeight="1">
@@ -7583,10 +7718,12 @@
         <v>1</v>
       </c>
       <c r="F219" s="6">
-        <v>48813</v>
-      </c>
-      <c r="G219" s="5">
-        <v>7236</v>
+        <f t="shared" ref="F219:F250" si="140">B219*2</f>
+        <v>32542</v>
+      </c>
+      <c r="G219" s="6">
+        <f t="shared" ref="G219:G250" si="141">C219*1.5</f>
+        <v>3618</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="16.5" customHeight="1">
@@ -7652,10 +7789,12 @@
         <v>1</v>
       </c>
       <c r="F222" s="6">
-        <v>49515</v>
-      </c>
-      <c r="G222" s="5">
-        <v>7344</v>
+        <f t="shared" ref="F222:F253" si="142">B222*2</f>
+        <v>33010</v>
+      </c>
+      <c r="G222" s="6">
+        <f t="shared" ref="G222:G253" si="143">C222*1.5</f>
+        <v>3672</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="16.5" customHeight="1">
@@ -7721,10 +7860,12 @@
         <v>1</v>
       </c>
       <c r="F225" s="6">
-        <v>50217</v>
-      </c>
-      <c r="G225" s="5">
-        <v>7452</v>
+        <f t="shared" ref="F225:F256" si="144">B225*2</f>
+        <v>33478</v>
+      </c>
+      <c r="G225" s="6">
+        <f t="shared" ref="G225:G256" si="145">C225*1.5</f>
+        <v>3726</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="16.5" customHeight="1">
@@ -7790,10 +7931,12 @@
         <v>1</v>
       </c>
       <c r="F228" s="6">
-        <v>50919</v>
-      </c>
-      <c r="G228" s="5">
-        <v>7560</v>
+        <f t="shared" ref="F228:F259" si="146">B228*2</f>
+        <v>33946</v>
+      </c>
+      <c r="G228" s="6">
+        <f t="shared" ref="G228:G259" si="147">C228*1.5</f>
+        <v>3780</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="16.5" customHeight="1">
@@ -7859,10 +8002,12 @@
         <v>1</v>
       </c>
       <c r="F231" s="6">
-        <v>51621</v>
-      </c>
-      <c r="G231" s="5">
-        <v>7668</v>
+        <f t="shared" ref="F231:F262" si="148">B231*2</f>
+        <v>34414</v>
+      </c>
+      <c r="G231" s="6">
+        <f t="shared" ref="G231:G262" si="149">C231*1.5</f>
+        <v>3834</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="16.5" customHeight="1">
@@ -7928,10 +8073,12 @@
         <v>1</v>
       </c>
       <c r="F234" s="6">
-        <v>52323</v>
-      </c>
-      <c r="G234" s="5">
-        <v>7776</v>
+        <f t="shared" ref="F234:F265" si="150">B234*2</f>
+        <v>34882</v>
+      </c>
+      <c r="G234" s="6">
+        <f t="shared" ref="G234:G265" si="151">C234*1.5</f>
+        <v>3888</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="16.5" customHeight="1">
@@ -7997,10 +8144,12 @@
         <v>1</v>
       </c>
       <c r="F237" s="6">
-        <v>53025</v>
-      </c>
-      <c r="G237" s="5">
-        <v>7884</v>
+        <f t="shared" ref="F237:F268" si="152">B237*2</f>
+        <v>35350</v>
+      </c>
+      <c r="G237" s="6">
+        <f t="shared" ref="G237:G268" si="153">C237*1.5</f>
+        <v>3942</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="16.5" customHeight="1">
@@ -8066,10 +8215,12 @@
         <v>1</v>
       </c>
       <c r="F240" s="6">
-        <v>53727</v>
-      </c>
-      <c r="G240" s="5">
-        <v>7992</v>
+        <f t="shared" ref="F240:F271" si="154">B240*2</f>
+        <v>35818</v>
+      </c>
+      <c r="G240" s="6">
+        <f t="shared" ref="G240:G271" si="155">C240*1.5</f>
+        <v>3996</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="16.5" customHeight="1">
@@ -8135,10 +8286,12 @@
         <v>1</v>
       </c>
       <c r="F243" s="6">
-        <v>54429</v>
-      </c>
-      <c r="G243" s="5">
-        <v>8100</v>
+        <f t="shared" ref="F243:F274" si="156">B243*2</f>
+        <v>36286</v>
+      </c>
+      <c r="G243" s="6">
+        <f t="shared" ref="G243:G274" si="157">C243*1.5</f>
+        <v>4050</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="16.5" customHeight="1">
@@ -8204,10 +8357,12 @@
         <v>1</v>
       </c>
       <c r="F246" s="6">
-        <v>55131</v>
-      </c>
-      <c r="G246" s="5">
-        <v>8208</v>
+        <f t="shared" ref="F246:F277" si="158">B246*2</f>
+        <v>36754</v>
+      </c>
+      <c r="G246" s="6">
+        <f t="shared" ref="G246:G277" si="159">C246*1.5</f>
+        <v>4104</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="16.5" customHeight="1">
@@ -8273,10 +8428,12 @@
         <v>1</v>
       </c>
       <c r="F249" s="6">
-        <v>55833</v>
-      </c>
-      <c r="G249" s="5">
-        <v>8316</v>
+        <f t="shared" ref="F249:F280" si="160">B249*2</f>
+        <v>37222</v>
+      </c>
+      <c r="G249" s="6">
+        <f t="shared" ref="G249:G280" si="161">C249*1.5</f>
+        <v>4158</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="16.5" customHeight="1">
@@ -8342,10 +8499,12 @@
         <v>1</v>
       </c>
       <c r="F252" s="6">
-        <v>56535</v>
-      </c>
-      <c r="G252" s="5">
-        <v>8424</v>
+        <f t="shared" ref="F252:F283" si="162">B252*2</f>
+        <v>37690</v>
+      </c>
+      <c r="G252" s="6">
+        <f t="shared" ref="G252:G283" si="163">C252*1.5</f>
+        <v>4212</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="16.5" customHeight="1">
@@ -8411,10 +8570,12 @@
         <v>1</v>
       </c>
       <c r="F255" s="6">
-        <v>57237</v>
-      </c>
-      <c r="G255" s="5">
-        <v>8532</v>
+        <f t="shared" ref="F255:F286" si="164">B255*2</f>
+        <v>38158</v>
+      </c>
+      <c r="G255" s="6">
+        <f t="shared" ref="G255:G286" si="165">C255*1.5</f>
+        <v>4266</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="16.5" customHeight="1">
@@ -8480,10 +8641,12 @@
         <v>1</v>
       </c>
       <c r="F258" s="6">
-        <v>57939</v>
-      </c>
-      <c r="G258" s="5">
-        <v>8640</v>
+        <f t="shared" ref="F258:F289" si="166">B258*2</f>
+        <v>38626</v>
+      </c>
+      <c r="G258" s="6">
+        <f t="shared" ref="G258:G289" si="167">C258*1.5</f>
+        <v>4320</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="16.5" customHeight="1">
@@ -8549,10 +8712,12 @@
         <v>1</v>
       </c>
       <c r="F261" s="6">
-        <v>58641</v>
-      </c>
-      <c r="G261" s="5">
-        <v>8748</v>
+        <f t="shared" ref="F261:F292" si="168">B261*2</f>
+        <v>39094</v>
+      </c>
+      <c r="G261" s="6">
+        <f t="shared" ref="G261:G292" si="169">C261*1.5</f>
+        <v>4374</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="16.5" customHeight="1">
@@ -8618,10 +8783,12 @@
         <v>1</v>
       </c>
       <c r="F264" s="6">
-        <v>59343</v>
-      </c>
-      <c r="G264" s="5">
-        <v>8856</v>
+        <f t="shared" ref="F264:F295" si="170">B264*2</f>
+        <v>39562</v>
+      </c>
+      <c r="G264" s="6">
+        <f t="shared" ref="G264:G295" si="171">C264*1.5</f>
+        <v>4428</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="16.5" customHeight="1">
@@ -8687,10 +8854,12 @@
         <v>1</v>
       </c>
       <c r="F267" s="6">
-        <v>60045</v>
-      </c>
-      <c r="G267" s="5">
-        <v>8964</v>
+        <f t="shared" ref="F267:F298" si="172">B267*2</f>
+        <v>40030</v>
+      </c>
+      <c r="G267" s="6">
+        <f t="shared" ref="G267:G298" si="173">C267*1.5</f>
+        <v>4482</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="16.5" customHeight="1">
@@ -8756,10 +8925,12 @@
         <v>1</v>
       </c>
       <c r="F270" s="6">
-        <v>60747</v>
-      </c>
-      <c r="G270" s="5">
-        <v>9072</v>
+        <f t="shared" ref="F270:F301" si="174">B270*2</f>
+        <v>40498</v>
+      </c>
+      <c r="G270" s="6">
+        <f t="shared" ref="G270:G301" si="175">C270*1.5</f>
+        <v>4536</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="16.5" customHeight="1">
@@ -8825,10 +8996,12 @@
         <v>1</v>
       </c>
       <c r="F273" s="6">
-        <v>61449</v>
-      </c>
-      <c r="G273" s="5">
-        <v>9180</v>
+        <f t="shared" ref="F273:F304" si="176">B273*2</f>
+        <v>40966</v>
+      </c>
+      <c r="G273" s="6">
+        <f t="shared" ref="G273:G304" si="177">C273*1.5</f>
+        <v>4590</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="16.5" customHeight="1">
@@ -8894,10 +9067,12 @@
         <v>1</v>
       </c>
       <c r="F276" s="6">
-        <v>62151</v>
-      </c>
-      <c r="G276" s="5">
-        <v>9288</v>
+        <f t="shared" ref="F276:F307" si="178">B276*2</f>
+        <v>41434</v>
+      </c>
+      <c r="G276" s="6">
+        <f t="shared" ref="G276:G307" si="179">C276*1.5</f>
+        <v>4644</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="16.5" customHeight="1">
@@ -8963,10 +9138,12 @@
         <v>1</v>
       </c>
       <c r="F279" s="6">
-        <v>62853</v>
-      </c>
-      <c r="G279" s="5">
-        <v>9396</v>
+        <f t="shared" ref="F279:F310" si="180">B279*2</f>
+        <v>41902</v>
+      </c>
+      <c r="G279" s="6">
+        <f t="shared" ref="G279:G310" si="181">C279*1.5</f>
+        <v>4698</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="16.5" customHeight="1">
@@ -9032,10 +9209,12 @@
         <v>1</v>
       </c>
       <c r="F282" s="6">
-        <v>63555</v>
-      </c>
-      <c r="G282" s="5">
-        <v>9504</v>
+        <f t="shared" ref="F282:F313" si="182">B282*2</f>
+        <v>42370</v>
+      </c>
+      <c r="G282" s="6">
+        <f t="shared" ref="G282:G313" si="183">C282*1.5</f>
+        <v>4752</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="16.5" customHeight="1">
@@ -9101,10 +9280,12 @@
         <v>1</v>
       </c>
       <c r="F285" s="6">
-        <v>64257</v>
-      </c>
-      <c r="G285" s="5">
-        <v>9612</v>
+        <f t="shared" ref="F285:F316" si="184">B285*2</f>
+        <v>42838</v>
+      </c>
+      <c r="G285" s="6">
+        <f t="shared" ref="G285:G316" si="185">C285*1.5</f>
+        <v>4806</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="16.5" customHeight="1">
@@ -9170,10 +9351,12 @@
         <v>1</v>
       </c>
       <c r="F288" s="6">
-        <v>64959</v>
-      </c>
-      <c r="G288" s="5">
-        <v>9720</v>
+        <f t="shared" ref="F288:F319" si="186">B288*2</f>
+        <v>43306</v>
+      </c>
+      <c r="G288" s="6">
+        <f t="shared" ref="G288:G319" si="187">C288*1.5</f>
+        <v>4860</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="16.5" customHeight="1">
@@ -9239,10 +9422,12 @@
         <v>1</v>
       </c>
       <c r="F291" s="6">
-        <v>65661</v>
-      </c>
-      <c r="G291" s="5">
-        <v>9828</v>
+        <f t="shared" ref="F291:F322" si="188">B291*2</f>
+        <v>43774</v>
+      </c>
+      <c r="G291" s="6">
+        <f t="shared" ref="G291:G322" si="189">C291*1.5</f>
+        <v>4914</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="16.5" customHeight="1">
@@ -9308,10 +9493,12 @@
         <v>1</v>
       </c>
       <c r="F294" s="6">
-        <v>66363</v>
-      </c>
-      <c r="G294" s="5">
-        <v>9936</v>
+        <f t="shared" ref="F294:F325" si="190">B294*2</f>
+        <v>44242</v>
+      </c>
+      <c r="G294" s="6">
+        <f t="shared" ref="G294:G325" si="191">C294*1.5</f>
+        <v>4968</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="16.5" customHeight="1">
@@ -9377,10 +9564,12 @@
         <v>1</v>
       </c>
       <c r="F297" s="6">
-        <v>67065</v>
-      </c>
-      <c r="G297" s="5">
-        <v>10044</v>
+        <f t="shared" ref="F297:F328" si="192">B297*2</f>
+        <v>44710</v>
+      </c>
+      <c r="G297" s="6">
+        <f t="shared" ref="G297:G328" si="193">C297*1.5</f>
+        <v>5022</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="16.5" customHeight="1">
@@ -9446,10 +9635,12 @@
         <v>1</v>
       </c>
       <c r="F300" s="6">
-        <v>67767</v>
-      </c>
-      <c r="G300" s="5">
-        <v>10152</v>
+        <f t="shared" ref="F300:F331" si="194">B300*2</f>
+        <v>45178</v>
+      </c>
+      <c r="G300" s="6">
+        <f t="shared" ref="G300:G331" si="195">C300*1.5</f>
+        <v>5076</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="16.5" customHeight="1">
@@ -9515,10 +9706,12 @@
         <v>1</v>
       </c>
       <c r="F303" s="6">
-        <v>68469</v>
-      </c>
-      <c r="G303" s="5">
-        <v>10260</v>
+        <f t="shared" ref="F303:F334" si="196">B303*2</f>
+        <v>45646</v>
+      </c>
+      <c r="G303" s="6">
+        <f t="shared" ref="G303:G334" si="197">C303*1.5</f>
+        <v>5130</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="16.5" customHeight="1">
@@ -9584,10 +9777,12 @@
         <v>1</v>
       </c>
       <c r="F306" s="6">
-        <v>69171</v>
-      </c>
-      <c r="G306" s="5">
-        <v>10368</v>
+        <f t="shared" ref="F306:F337" si="198">B306*2</f>
+        <v>46114</v>
+      </c>
+      <c r="G306" s="6">
+        <f t="shared" ref="G306:G337" si="199">C306*1.5</f>
+        <v>5184</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="16.5" customHeight="1">
@@ -9653,10 +9848,12 @@
         <v>1</v>
       </c>
       <c r="F309" s="6">
-        <v>69873</v>
-      </c>
-      <c r="G309" s="5">
-        <v>10476</v>
+        <f t="shared" ref="F309:F340" si="200">B309*2</f>
+        <v>46582</v>
+      </c>
+      <c r="G309" s="6">
+        <f t="shared" ref="G309:G340" si="201">C309*1.5</f>
+        <v>5238</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="16.5" customHeight="1">
@@ -9722,10 +9919,12 @@
         <v>1</v>
       </c>
       <c r="F312" s="6">
-        <v>70575</v>
-      </c>
-      <c r="G312" s="5">
-        <v>10584</v>
+        <f t="shared" ref="F312:F343" si="202">B312*2</f>
+        <v>47050</v>
+      </c>
+      <c r="G312" s="6">
+        <f t="shared" ref="G312:G343" si="203">C312*1.5</f>
+        <v>5292</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="16.5" customHeight="1">
@@ -9791,10 +9990,12 @@
         <v>1</v>
       </c>
       <c r="F315" s="6">
-        <v>71277</v>
-      </c>
-      <c r="G315" s="5">
-        <v>10692</v>
+        <f t="shared" ref="F315:F346" si="204">B315*2</f>
+        <v>47518</v>
+      </c>
+      <c r="G315" s="6">
+        <f t="shared" ref="G315:G346" si="205">C315*1.5</f>
+        <v>5346</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="16.5" customHeight="1">
@@ -9860,10 +10061,12 @@
         <v>1</v>
       </c>
       <c r="F318" s="6">
-        <v>71979</v>
-      </c>
-      <c r="G318" s="5">
-        <v>10800</v>
+        <f t="shared" ref="F318:F349" si="206">B318*2</f>
+        <v>47986</v>
+      </c>
+      <c r="G318" s="6">
+        <f t="shared" ref="G318:G349" si="207">C318*1.5</f>
+        <v>5400</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="16.5" customHeight="1">
@@ -9929,10 +10132,12 @@
         <v>1</v>
       </c>
       <c r="F321" s="6">
-        <v>72681</v>
-      </c>
-      <c r="G321" s="5">
-        <v>10908</v>
+        <f t="shared" ref="F321:F352" si="208">B321*2</f>
+        <v>48454</v>
+      </c>
+      <c r="G321" s="6">
+        <f t="shared" ref="G321:G352" si="209">C321*1.5</f>
+        <v>5454</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="16.5" customHeight="1">
@@ -9998,10 +10203,12 @@
         <v>1</v>
       </c>
       <c r="F324" s="6">
-        <v>73383</v>
-      </c>
-      <c r="G324" s="5">
-        <v>11016</v>
+        <f t="shared" ref="F324:F355" si="210">B324*2</f>
+        <v>48922</v>
+      </c>
+      <c r="G324" s="6">
+        <f t="shared" ref="G324:G355" si="211">C324*1.5</f>
+        <v>5508</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="16.5" customHeight="1">
@@ -10067,10 +10274,12 @@
         <v>1</v>
       </c>
       <c r="F327" s="6">
-        <v>74085</v>
-      </c>
-      <c r="G327" s="5">
-        <v>11124</v>
+        <f t="shared" ref="F327:F358" si="212">B327*2</f>
+        <v>49390</v>
+      </c>
+      <c r="G327" s="6">
+        <f t="shared" ref="G327:G358" si="213">C327*1.5</f>
+        <v>5562</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="16.5" customHeight="1">
@@ -10136,10 +10345,12 @@
         <v>1</v>
       </c>
       <c r="F330" s="6">
-        <v>74787</v>
-      </c>
-      <c r="G330" s="5">
-        <v>11232</v>
+        <f t="shared" ref="F330:F361" si="214">B330*2</f>
+        <v>49858</v>
+      </c>
+      <c r="G330" s="6">
+        <f t="shared" ref="G330:G361" si="215">C330*1.5</f>
+        <v>5616</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="16.5" customHeight="1">
@@ -10205,10 +10416,12 @@
         <v>1</v>
       </c>
       <c r="F333" s="6">
-        <v>75489</v>
-      </c>
-      <c r="G333" s="5">
-        <v>11340</v>
+        <f t="shared" ref="F333:F364" si="216">B333*2</f>
+        <v>50326</v>
+      </c>
+      <c r="G333" s="6">
+        <f t="shared" ref="G333:G364" si="217">C333*1.5</f>
+        <v>5670</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="16.5" customHeight="1">
@@ -10274,10 +10487,12 @@
         <v>1</v>
       </c>
       <c r="F336" s="6">
-        <v>76191</v>
-      </c>
-      <c r="G336" s="5">
-        <v>11448</v>
+        <f t="shared" ref="F336:F367" si="218">B336*2</f>
+        <v>50794</v>
+      </c>
+      <c r="G336" s="6">
+        <f t="shared" ref="G336:G367" si="219">C336*1.5</f>
+        <v>5724</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="16.5" customHeight="1">
@@ -10343,10 +10558,12 @@
         <v>1</v>
       </c>
       <c r="F339" s="6">
-        <v>76893</v>
-      </c>
-      <c r="G339" s="5">
-        <v>11556</v>
+        <f t="shared" ref="F339:F370" si="220">B339*2</f>
+        <v>51262</v>
+      </c>
+      <c r="G339" s="6">
+        <f t="shared" ref="G339:G370" si="221">C339*1.5</f>
+        <v>5778</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="16.5" customHeight="1">
@@ -10412,10 +10629,12 @@
         <v>1</v>
       </c>
       <c r="F342" s="6">
-        <v>77595</v>
-      </c>
-      <c r="G342" s="5">
-        <v>11664</v>
+        <f t="shared" ref="F342:F373" si="222">B342*2</f>
+        <v>51730</v>
+      </c>
+      <c r="G342" s="6">
+        <f t="shared" ref="G342:G373" si="223">C342*1.5</f>
+        <v>5832</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="16.5" customHeight="1">
@@ -10481,10 +10700,12 @@
         <v>1</v>
       </c>
       <c r="F345" s="6">
-        <v>78297</v>
-      </c>
-      <c r="G345" s="5">
-        <v>11772</v>
+        <f t="shared" ref="F345:F376" si="224">B345*2</f>
+        <v>52198</v>
+      </c>
+      <c r="G345" s="6">
+        <f t="shared" ref="G345:G376" si="225">C345*1.5</f>
+        <v>5886</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="16.5" customHeight="1">
@@ -10550,10 +10771,12 @@
         <v>1</v>
       </c>
       <c r="F348" s="6">
-        <v>78999</v>
-      </c>
-      <c r="G348" s="5">
-        <v>11880</v>
+        <f t="shared" ref="F348:F379" si="226">B348*2</f>
+        <v>52666</v>
+      </c>
+      <c r="G348" s="6">
+        <f t="shared" ref="G348:G379" si="227">C348*1.5</f>
+        <v>5940</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="16.5" customHeight="1">
@@ -10619,10 +10842,12 @@
         <v>1</v>
       </c>
       <c r="F351" s="6">
-        <v>79701</v>
-      </c>
-      <c r="G351" s="5">
-        <v>11988</v>
+        <f t="shared" ref="F351:F382" si="228">B351*2</f>
+        <v>53134</v>
+      </c>
+      <c r="G351" s="6">
+        <f t="shared" ref="G351:G382" si="229">C351*1.5</f>
+        <v>5994</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="16.5" customHeight="1">
@@ -10688,10 +10913,12 @@
         <v>1</v>
       </c>
       <c r="F354" s="6">
-        <v>80403</v>
-      </c>
-      <c r="G354" s="5">
-        <v>12096</v>
+        <f t="shared" ref="F354:F385" si="230">B354*2</f>
+        <v>53602</v>
+      </c>
+      <c r="G354" s="6">
+        <f t="shared" ref="G354:G385" si="231">C354*1.5</f>
+        <v>6048</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="16.5" customHeight="1">
@@ -10757,10 +10984,12 @@
         <v>1</v>
       </c>
       <c r="F357" s="6">
-        <v>81105</v>
-      </c>
-      <c r="G357" s="5">
-        <v>12204</v>
+        <f t="shared" ref="F357:F403" si="232">B357*2</f>
+        <v>54070</v>
+      </c>
+      <c r="G357" s="6">
+        <f t="shared" ref="G357:G403" si="233">C357*1.5</f>
+        <v>6102</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="16.5" customHeight="1">
@@ -10826,10 +11055,12 @@
         <v>1</v>
       </c>
       <c r="F360" s="6">
-        <v>81807</v>
-      </c>
-      <c r="G360" s="5">
-        <v>12312</v>
+        <f t="shared" ref="F360:F403" si="234">B360*2</f>
+        <v>54538</v>
+      </c>
+      <c r="G360" s="6">
+        <f t="shared" ref="G360:G403" si="235">C360*1.5</f>
+        <v>6156</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="16.5" customHeight="1">
@@ -10895,10 +11126,12 @@
         <v>1</v>
       </c>
       <c r="F363" s="6">
-        <v>82509</v>
-      </c>
-      <c r="G363" s="5">
-        <v>12420</v>
+        <f t="shared" ref="F363:F403" si="236">B363*2</f>
+        <v>55006</v>
+      </c>
+      <c r="G363" s="6">
+        <f t="shared" ref="G363:G403" si="237">C363*1.5</f>
+        <v>6210</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="16.5" customHeight="1">
@@ -10964,10 +11197,12 @@
         <v>1</v>
       </c>
       <c r="F366" s="6">
-        <v>83211</v>
-      </c>
-      <c r="G366" s="5">
-        <v>12528</v>
+        <f t="shared" ref="F366:F403" si="238">B366*2</f>
+        <v>55474</v>
+      </c>
+      <c r="G366" s="6">
+        <f t="shared" ref="G366:G403" si="239">C366*1.5</f>
+        <v>6264</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="16.5" customHeight="1">
@@ -11033,10 +11268,12 @@
         <v>1</v>
       </c>
       <c r="F369" s="6">
-        <v>83913</v>
-      </c>
-      <c r="G369" s="5">
-        <v>12636</v>
+        <f t="shared" ref="F369:F403" si="240">B369*2</f>
+        <v>55942</v>
+      </c>
+      <c r="G369" s="6">
+        <f t="shared" ref="G369:G403" si="241">C369*1.5</f>
+        <v>6318</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="16.5" customHeight="1">
@@ -11102,10 +11339,12 @@
         <v>1</v>
       </c>
       <c r="F372" s="6">
-        <v>84615</v>
-      </c>
-      <c r="G372" s="5">
-        <v>12744</v>
+        <f t="shared" ref="F372:F403" si="242">B372*2</f>
+        <v>56410</v>
+      </c>
+      <c r="G372" s="6">
+        <f t="shared" ref="G372:G403" si="243">C372*1.5</f>
+        <v>6372</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="16.5" customHeight="1">
@@ -11171,10 +11410,12 @@
         <v>1</v>
       </c>
       <c r="F375" s="6">
-        <v>85317</v>
-      </c>
-      <c r="G375" s="5">
-        <v>12852</v>
+        <f t="shared" ref="F375:F403" si="244">B375*2</f>
+        <v>56878</v>
+      </c>
+      <c r="G375" s="6">
+        <f t="shared" ref="G375:G403" si="245">C375*1.5</f>
+        <v>6426</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="16.5" customHeight="1">
@@ -11240,10 +11481,12 @@
         <v>1</v>
       </c>
       <c r="F378" s="6">
-        <v>86019</v>
-      </c>
-      <c r="G378" s="5">
-        <v>12960</v>
+        <f t="shared" ref="F378:F403" si="246">B378*2</f>
+        <v>57346</v>
+      </c>
+      <c r="G378" s="6">
+        <f t="shared" ref="G378:G403" si="247">C378*1.5</f>
+        <v>6480</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="16.5" customHeight="1">
@@ -11309,10 +11552,12 @@
         <v>1</v>
       </c>
       <c r="F381" s="6">
-        <v>86721</v>
-      </c>
-      <c r="G381" s="5">
-        <v>13068</v>
+        <f t="shared" ref="F381:F403" si="248">B381*2</f>
+        <v>57814</v>
+      </c>
+      <c r="G381" s="6">
+        <f t="shared" ref="G381:G403" si="249">C381*1.5</f>
+        <v>6534</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="16.5" customHeight="1">
@@ -11378,10 +11623,12 @@
         <v>1</v>
       </c>
       <c r="F384" s="6">
-        <v>87423</v>
-      </c>
-      <c r="G384" s="5">
-        <v>13176</v>
+        <f t="shared" ref="F384:F403" si="250">B384*2</f>
+        <v>58282</v>
+      </c>
+      <c r="G384" s="6">
+        <f t="shared" ref="G384:G403" si="251">C384*1.5</f>
+        <v>6588</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="16.5" customHeight="1">
@@ -11447,10 +11694,12 @@
         <v>1</v>
       </c>
       <c r="F387" s="6">
-        <v>88125</v>
-      </c>
-      <c r="G387" s="5">
-        <v>13284</v>
+        <f t="shared" ref="F387:F403" si="252">B387*2</f>
+        <v>58750</v>
+      </c>
+      <c r="G387" s="6">
+        <f t="shared" ref="G387:G403" si="253">C387*1.5</f>
+        <v>6642</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="16.5" customHeight="1">
@@ -11516,10 +11765,12 @@
         <v>1</v>
       </c>
       <c r="F390" s="6">
-        <v>88827</v>
-      </c>
-      <c r="G390" s="5">
-        <v>13392</v>
+        <f t="shared" ref="F390:F403" si="254">B390*2</f>
+        <v>59218</v>
+      </c>
+      <c r="G390" s="6">
+        <f t="shared" ref="G390:G403" si="255">C390*1.5</f>
+        <v>6696</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="16.5" customHeight="1">
@@ -11585,10 +11836,12 @@
         <v>1</v>
       </c>
       <c r="F393" s="6">
-        <v>89529</v>
-      </c>
-      <c r="G393" s="5">
-        <v>13500</v>
+        <f t="shared" ref="F393:F403" si="256">B393*2</f>
+        <v>59686</v>
+      </c>
+      <c r="G393" s="6">
+        <f t="shared" ref="G393:G403" si="257">C393*1.5</f>
+        <v>6750</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="16.5" customHeight="1">
@@ -11654,10 +11907,12 @@
         <v>1</v>
       </c>
       <c r="F396" s="6">
-        <v>90231</v>
-      </c>
-      <c r="G396" s="5">
-        <v>13608</v>
+        <f t="shared" ref="F396:F403" si="258">B396*2</f>
+        <v>60154</v>
+      </c>
+      <c r="G396" s="6">
+        <f t="shared" ref="G396:G403" si="259">C396*1.5</f>
+        <v>6804</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="16.5" customHeight="1">
@@ -11723,10 +11978,12 @@
         <v>1</v>
       </c>
       <c r="F399" s="6">
-        <v>90933</v>
-      </c>
-      <c r="G399" s="5">
-        <v>13716</v>
+        <f t="shared" ref="F399:F403" si="260">B399*2</f>
+        <v>60622</v>
+      </c>
+      <c r="G399" s="6">
+        <f t="shared" ref="G399:G403" si="261">C399*1.5</f>
+        <v>6858</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="16.5" customHeight="1">
@@ -11792,10 +12049,12 @@
         <v>1</v>
       </c>
       <c r="F402" s="6">
-        <v>91635</v>
-      </c>
-      <c r="G402" s="5">
-        <v>13824</v>
+        <f t="shared" ref="F402:F403" si="262">B402*2</f>
+        <v>61090</v>
+      </c>
+      <c r="G402" s="6">
+        <f t="shared" ref="G402:G403" si="263">C402*1.5</f>
+        <v>6912</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="16.5" customHeight="1">
@@ -13625,7 +13884,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13686,10 +13945,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
         <v>12</v>
@@ -13701,11 +13960,11 @@
       </c>
       <c r="B5" s="7">
         <f t="shared" ref="B5:B63" si="0">ROUND($B$4 * EXP(0.055 * (A5 - 1)), 0)</f>
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C63" si="1">ROUND($C$4 * EXP(0.055 * (A5 - 1)), 0)</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
         <v>12</v>
@@ -13717,11 +13976,11 @@
       </c>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7">
         <v>12</v>
@@ -13733,11 +13992,11 @@
       </c>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
         <v>12</v>
@@ -13749,11 +14008,11 @@
       </c>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
         <v>12</v>
@@ -13765,11 +14024,11 @@
       </c>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7">
         <v>12</v>
@@ -13781,11 +14040,11 @@
       </c>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
         <v>12</v>
@@ -13797,11 +14056,11 @@
       </c>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7">
         <v>12</v>
@@ -13813,11 +14072,11 @@
       </c>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>311</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7">
         <v>12</v>
@@ -13829,11 +14088,11 @@
       </c>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
         <v>12</v>
@@ -13845,11 +14104,11 @@
       </c>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
         <v>12</v>
@@ -13861,11 +14120,11 @@
       </c>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>366</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7">
         <v>12</v>
@@ -13877,11 +14136,11 @@
       </c>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>387</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
         <v>12</v>
@@ -13893,11 +14152,11 @@
       </c>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>409</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
         <v>12</v>
@@ -13909,11 +14168,11 @@
       </c>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>432</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
         <v>12</v>
@@ -13925,11 +14184,11 @@
       </c>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>456</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
         <v>15</v>
@@ -13941,11 +14200,11 @@
       </c>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>482</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D20" s="7">
         <v>15</v>
@@ -13957,11 +14216,11 @@
       </c>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>509</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D21" s="7">
         <v>15</v>
@@ -13973,11 +14232,11 @@
       </c>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>538</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7">
         <v>15</v>
@@ -13989,11 +14248,11 @@
       </c>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>569</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D23" s="7">
         <v>15</v>
@@ -14005,11 +14264,11 @@
       </c>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>601</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7">
         <v>15</v>
@@ -14021,11 +14280,11 @@
       </c>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>635</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D25" s="7">
         <v>15</v>
@@ -14037,11 +14296,11 @@
       </c>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>671</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D26" s="7">
         <v>15</v>
@@ -14053,11 +14312,11 @@
       </c>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>709</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D27" s="7">
         <v>15</v>
@@ -14069,11 +14328,11 @@
       </c>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>749</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D28" s="7">
         <v>15</v>
@@ -14085,11 +14344,11 @@
       </c>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
-        <v>396</v>
+        <v>791</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D29" s="7">
         <v>15</v>
@@ -14101,11 +14360,11 @@
       </c>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
-        <v>418</v>
+        <v>836</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D30" s="7">
         <v>15</v>
@@ -14117,11 +14376,11 @@
       </c>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>883</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D31" s="7">
         <v>15</v>
@@ -14133,11 +14392,11 @@
       </c>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
-        <v>466</v>
+        <v>933</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D32" s="7">
         <v>15</v>
@@ -14149,11 +14408,11 @@
       </c>
       <c r="B33" s="7">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>986</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D33" s="7">
         <v>15</v>
@@ -14165,11 +14424,11 @@
       </c>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
-        <v>521</v>
+        <v>1041</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D34" s="7">
         <v>23</v>
@@ -14181,11 +14440,11 @@
       </c>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="D35" s="7">
         <v>23</v>
@@ -14197,11 +14456,11 @@
       </c>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
-        <v>581</v>
+        <v>1162</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D36" s="7">
         <v>23</v>
@@ -14213,11 +14472,11 @@
       </c>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
-        <v>614</v>
+        <v>1228</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D37" s="7">
         <v>23</v>
@@ -14229,11 +14488,11 @@
       </c>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
-        <v>649</v>
+        <v>1298</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="D38" s="7">
         <v>23</v>
@@ -14245,11 +14504,11 @@
       </c>
       <c r="B39" s="7">
         <f t="shared" si="0"/>
-        <v>686</v>
+        <v>1371</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="D39" s="7">
         <v>23</v>
@@ -14261,11 +14520,11 @@
       </c>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
-        <v>724</v>
+        <v>1449</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="D40" s="7">
         <v>23</v>
@@ -14277,11 +14536,11 @@
       </c>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
-        <v>765</v>
+        <v>1530</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="D41" s="7">
         <v>23</v>
@@ -14293,11 +14552,11 @@
       </c>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>1617</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="D42" s="7">
         <v>23</v>
@@ -14309,11 +14568,11 @@
       </c>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
-        <v>854</v>
+        <v>1708</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="D43" s="7">
         <v>23</v>
@@ -14325,11 +14584,11 @@
       </c>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
-        <v>903</v>
+        <v>1805</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="D44" s="7">
         <v>23</v>
@@ -14341,11 +14600,11 @@
       </c>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
-        <v>954</v>
+        <v>1907</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D45" s="7">
         <v>23</v>
@@ -14357,11 +14616,11 @@
       </c>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
-        <v>1007</v>
+        <v>2015</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="D46" s="7">
         <v>23</v>
@@ -14373,11 +14632,11 @@
       </c>
       <c r="B47" s="7">
         <f t="shared" si="0"/>
-        <v>1064</v>
+        <v>2129</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" customHeight="1">
@@ -14386,11 +14645,11 @@
       </c>
       <c r="B48" s="7">
         <f t="shared" si="0"/>
-        <v>1125</v>
+        <v>2249</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="D48" s="7">
         <v>23</v>
@@ -14402,11 +14661,11 @@
       </c>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
-        <v>1188</v>
+        <v>2376</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="D49" s="7">
         <v>27</v>
@@ -14418,11 +14677,11 @@
       </c>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
-        <v>1255</v>
+        <v>2511</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="D50" s="7">
         <v>27</v>
@@ -14434,11 +14693,11 @@
       </c>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
-        <v>1326</v>
+        <v>2653</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="D51" s="7">
         <v>27</v>
@@ -14450,11 +14709,11 @@
       </c>
       <c r="B52" s="7">
         <f t="shared" si="0"/>
-        <v>1401</v>
+        <v>2803</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="D52" s="7">
         <v>27</v>
@@ -14466,11 +14725,11 @@
       </c>
       <c r="B53" s="7">
         <f t="shared" si="0"/>
-        <v>1481</v>
+        <v>2961</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="1"/>
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="D53" s="7">
         <v>27</v>
@@ -14482,11 +14741,11 @@
       </c>
       <c r="B54" s="7">
         <f t="shared" si="0"/>
-        <v>1564</v>
+        <v>3129</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="1"/>
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="D54" s="7">
         <v>27</v>
@@ -14498,11 +14757,11 @@
       </c>
       <c r="B55" s="7">
         <f t="shared" si="0"/>
-        <v>1653</v>
+        <v>3305</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="D55" s="7">
         <v>27</v>
@@ -14514,11 +14773,11 @@
       </c>
       <c r="B56" s="7">
         <f t="shared" si="0"/>
-        <v>1746</v>
+        <v>3492</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>349</v>
       </c>
       <c r="D56" s="7">
         <v>27</v>
@@ -14530,11 +14789,11 @@
       </c>
       <c r="B57" s="7">
         <f t="shared" si="0"/>
-        <v>1845</v>
+        <v>3690</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>369</v>
       </c>
       <c r="D57" s="7">
         <v>27</v>
@@ -14546,11 +14805,11 @@
       </c>
       <c r="B58" s="7">
         <f t="shared" si="0"/>
-        <v>1949</v>
+        <v>3898</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>390</v>
       </c>
       <c r="D58" s="7">
         <v>27</v>
@@ -14562,11 +14821,11 @@
       </c>
       <c r="B59" s="7">
         <f t="shared" si="0"/>
-        <v>2059</v>
+        <v>4119</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="1"/>
-        <v>206</v>
+        <v>412</v>
       </c>
       <c r="D59" s="7">
         <v>27</v>
@@ -14578,11 +14837,11 @@
       </c>
       <c r="B60" s="7">
         <f t="shared" si="0"/>
-        <v>2176</v>
+        <v>4352</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>435</v>
       </c>
       <c r="D60" s="7">
         <v>27</v>
@@ -14594,11 +14853,11 @@
       </c>
       <c r="B61" s="7">
         <f t="shared" si="0"/>
-        <v>2299</v>
+        <v>4598</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>460</v>
       </c>
       <c r="D61" s="7">
         <v>27</v>
@@ -14610,11 +14869,11 @@
       </c>
       <c r="B62" s="7">
         <f t="shared" si="0"/>
-        <v>2429</v>
+        <v>4858</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="D62" s="7">
         <v>27</v>
@@ -14629,11 +14888,11 @@
       </c>
       <c r="B63" s="7">
         <f t="shared" si="0"/>
-        <v>2566</v>
+        <v>5132</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="1"/>
-        <v>257</v>
+        <v>513</v>
       </c>
       <c r="D63" s="7">
         <v>27</v>
@@ -24269,7 +24528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -24283,11 +24544,11 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
@@ -24298,7 +24559,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
@@ -24318,11 +24579,11 @@
       </c>
       <c r="B4" s="7">
         <f>ROUND((VLOOKUP(A4,일반몬스터!A:B,2,FALSE)) * IF(ROW(A4)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>190</v>
+        <v>379</v>
       </c>
       <c r="C4" s="7">
         <f>ROUND((VLOOKUP(A4,일반몬스터!A:C,3,FALSE)) * IF(ROW(A4)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
@@ -24331,11 +24592,11 @@
       </c>
       <c r="B5" s="7">
         <f>ROUND((VLOOKUP(A5,일반몬스터!A:B,2,FALSE)) * IF(ROW(A5)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>224</v>
+        <v>447</v>
       </c>
       <c r="C5" s="7">
         <f>ROUND((VLOOKUP(A5,일반몬스터!A:C,3,FALSE)) * IF(ROW(A5)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
@@ -24344,11 +24605,11 @@
       </c>
       <c r="B6" s="7">
         <f>ROUND((VLOOKUP(A6,일반몬스터!A:B,2,FALSE)) * IF(ROW(A6)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>279</v>
+        <v>560</v>
       </c>
       <c r="C6" s="7">
         <f>ROUND((VLOOKUP(A6,일반몬스터!A:C,3,FALSE)) * IF(ROW(A6)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
@@ -24357,11 +24618,11 @@
       </c>
       <c r="B7" s="7">
         <f>ROUND((VLOOKUP(A7,일반몬스터!A:B,2,FALSE)) * IF(ROW(A7)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>348</v>
+        <v>695</v>
       </c>
       <c r="C7" s="7">
         <f>ROUND((VLOOKUP(A7,일반몬스터!A:C,3,FALSE)) * IF(ROW(A7)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1">
@@ -24370,11 +24631,11 @@
       </c>
       <c r="B8" s="7">
         <f>ROUND((VLOOKUP(A8,일반몬스터!A:B,2,FALSE)) * IF(ROW(A8)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>432</v>
+        <v>864</v>
       </c>
       <c r="C8" s="7">
         <f>ROUND((VLOOKUP(A8,일반몬스터!A:C,3,FALSE)) * IF(ROW(A8)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1">
@@ -24383,11 +24644,11 @@
       </c>
       <c r="B9" s="7">
         <f>ROUND((VLOOKUP(A9,일반몬스터!A:B,2,FALSE)) * IF(ROW(A9)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>536</v>
+        <v>1069</v>
       </c>
       <c r="C9" s="7">
         <f>ROUND((VLOOKUP(A9,일반몬스터!A:C,3,FALSE)) * IF(ROW(A9)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>60</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1">
@@ -24396,11 +24657,11 @@
       </c>
       <c r="B10" s="7">
         <f>ROUND((VLOOKUP(A10,일반몬스터!A:B,2,FALSE)) * IF(ROW(A10)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>630</v>
+        <v>1262</v>
       </c>
       <c r="C10" s="7">
         <f>ROUND((VLOOKUP(A10,일반몬스터!A:C,3,FALSE)) * IF(ROW(A10)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1">
@@ -24409,11 +24670,11 @@
       </c>
       <c r="B11" s="7">
         <f>ROUND((VLOOKUP(A11,일반몬스터!A:B,2,FALSE)) * IF(ROW(A11)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>779</v>
+        <v>1560</v>
       </c>
       <c r="C11" s="7">
         <f>ROUND((VLOOKUP(A11,일반몬스터!A:C,3,FALSE)) * IF(ROW(A11)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>88</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
@@ -24422,11 +24683,11 @@
       </c>
       <c r="B12" s="7">
         <f>ROUND((VLOOKUP(A12,일반몬스터!A:B,2,FALSE)) * IF(ROW(A12)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>961</v>
+        <v>1923</v>
       </c>
       <c r="C12" s="7">
         <f>ROUND((VLOOKUP(A12,일반몬스터!A:C,3,FALSE)) * IF(ROW(A12)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>105</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1">
@@ -24435,11 +24696,11 @@
       </c>
       <c r="B13" s="7">
         <f>ROUND((VLOOKUP(A13,일반몬스터!A:B,2,FALSE)) * IF(ROW(A13)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>1183</v>
+        <v>2366</v>
       </c>
       <c r="C13" s="7">
         <f>ROUND((VLOOKUP(A13,일반몬스터!A:C,3,FALSE)) * IF(ROW(A13)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>127</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
@@ -24448,11 +24709,11 @@
       </c>
       <c r="B14" s="7">
         <f>ROUND((VLOOKUP(A14,일반몬스터!A:B,2,FALSE)) * IF(ROW(A14)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>1394</v>
+        <v>2789</v>
       </c>
       <c r="C14" s="7">
         <f>ROUND((VLOOKUP(A14,일반몬스터!A:C,3,FALSE)) * IF(ROW(A14)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
@@ -24461,11 +24722,11 @@
       </c>
       <c r="B15" s="7">
         <f>ROUND((VLOOKUP(A15,일반몬스터!A:B,2,FALSE)) * IF(ROW(A15)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>1715</v>
+        <v>3428</v>
       </c>
       <c r="C15" s="7">
         <f>ROUND((VLOOKUP(A15,일반몬스터!A:C,3,FALSE)) * IF(ROW(A15)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>186</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
@@ -24474,11 +24735,11 @@
       </c>
       <c r="B16" s="7">
         <f>ROUND((VLOOKUP(A16,일반몬스터!A:B,2,FALSE)) * IF(ROW(A16)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>2101</v>
+        <v>4204</v>
       </c>
       <c r="C16" s="7">
         <f>ROUND((VLOOKUP(A16,일반몬스터!A:C,3,FALSE)) * IF(ROW(A16)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>219</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
@@ -24487,11 +24748,11 @@
       </c>
       <c r="B17" s="7">
         <f>ROUND((VLOOKUP(A17,일반몬스터!A:B,2,FALSE)) * IF(ROW(A17)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>2576</v>
+        <v>5149</v>
       </c>
       <c r="C17" s="7">
         <f>ROUND((VLOOKUP(A17,일반몬스터!A:C,3,FALSE)) * IF(ROW(A17)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>266</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1">
@@ -24500,11 +24761,11 @@
       </c>
       <c r="B18" s="7">
         <f>ROUND((VLOOKUP(A18,일반몬스터!A:B,2,FALSE)) * IF(ROW(A18)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>3150</v>
+        <v>6297</v>
       </c>
       <c r="C18" s="7">
         <f>ROUND((VLOOKUP(A18,일반몬스터!A:C,3,FALSE)) * IF(ROW(A18)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>314</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
@@ -24513,11 +24774,11 @@
       </c>
       <c r="B19" s="7">
         <f>ROUND((VLOOKUP(A19,일반몬스터!A:B,2,FALSE)) * IF(ROW(A19)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>3713</v>
+        <v>7428</v>
       </c>
       <c r="C19" s="7">
         <f>ROUND((VLOOKUP(A19,일반몬스터!A:C,3,FALSE)) * IF(ROW(A19)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>386</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1">
@@ -24526,11 +24787,11 @@
       </c>
       <c r="B20" s="7">
         <f>ROUND((VLOOKUP(A20,일반몬스터!A:B,2,FALSE)) * IF(ROW(A20)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>4536</v>
+        <v>9074</v>
       </c>
       <c r="C20" s="7">
         <f>ROUND((VLOOKUP(A20,일반몬스터!A:C,3,FALSE)) * IF(ROW(A20)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>452</v>
+        <v>908</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1">
@@ -24539,11 +24800,11 @@
       </c>
       <c r="B21" s="7">
         <f>ROUND((VLOOKUP(A21,일반몬스터!A:B,2,FALSE)) * IF(ROW(A21)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>5535</v>
+        <v>11070</v>
       </c>
       <c r="C21" s="7">
         <f>ROUND((VLOOKUP(A21,일반몬스터!A:C,3,FALSE)) * IF(ROW(A21)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>552</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
@@ -24552,11 +24813,11 @@
       </c>
       <c r="B22" s="7">
         <f>ROUND((VLOOKUP(A22,일반몬스터!A:B,2,FALSE)) * IF(ROW(A22)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>6528</v>
+        <v>13056</v>
       </c>
       <c r="C22" s="7">
         <f>ROUND((VLOOKUP(A22,일반몬스터!A:C,3,FALSE)) * IF(ROW(A22)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>654</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1">
@@ -24565,11 +24826,11 @@
       </c>
       <c r="B23" s="7">
         <f>ROUND((VLOOKUP(A23,일반몬스터!A:B,2,FALSE)) * IF(ROW(A23)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>7698</v>
+        <v>15396</v>
       </c>
       <c r="C23" s="7">
         <f>ROUND((VLOOKUP(A23,일반몬스터!A:C,3,FALSE)) * IF(ROW(A23)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>771</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1">
@@ -30374,7 +30635,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -39622,7 +39883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/Assets/05.DataTable/몬스터 스탯.xlsx
+++ b/Assets/05.DataTable/몬스터 스탯.xlsx
@@ -541,184 +541,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>236</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>249</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>263</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>278</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>294</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>311</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>328</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>347</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>366</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>387</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>409</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>432</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>456</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>482</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>509</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>538</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>569</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>601</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>635</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>671</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>709</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>749</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>791</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>836</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>883</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>933</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>986</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1041</c:v>
+                  <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1100</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1162</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1228</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1298</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1371</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1449</c:v>
+                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1530</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1617</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1708</c:v>
+                  <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1805</c:v>
+                  <c:v>812</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1907</c:v>
+                  <c:v>858</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2015</c:v>
+                  <c:v>907</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2129</c:v>
+                  <c:v>958</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2249</c:v>
+                  <c:v>1012</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2376</c:v>
+                  <c:v>1069</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2511</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2653</c:v>
+                  <c:v>1194</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2803</c:v>
+                  <c:v>1261</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2961</c:v>
+                  <c:v>1332</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3129</c:v>
+                  <c:v>1408</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3305</c:v>
+                  <c:v>1487</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3492</c:v>
+                  <c:v>1572</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3690</c:v>
+                  <c:v>1660</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3898</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4119</c:v>
+                  <c:v>1853</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4352</c:v>
+                  <c:v>1958</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4598</c:v>
+                  <c:v>2069</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4858</c:v>
+                  <c:v>2186</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5132</c:v>
+                  <c:v>2310</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>3083</c:v>
@@ -947,6 +947,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1009,6 +1010,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1086,184 +1088,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="16">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="19">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="21">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>63</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>67</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>71</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>79</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>84</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>88</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>93</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>99</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>104</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>110</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>116</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>123</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>130</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>137</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>145</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>153</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>162</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>171</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>181</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>191</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>201</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>213</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>225</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>238</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>251</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>265</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>280</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>296</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>313</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>331</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>349</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>369</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>390</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>412</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>435</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>460</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>486</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>513</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>308</c:v>
@@ -1492,6 +1494,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1554,6 +1557,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1631,64 +1635,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>379</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>447</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>560</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>695</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>864</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1069</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1262</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1560</c:v>
+                  <c:v>702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1923</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2366</c:v>
+                  <c:v>1066</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2789</c:v>
+                  <c:v>1255</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3428</c:v>
+                  <c:v>1543</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4204</c:v>
+                  <c:v>1893</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5149</c:v>
+                  <c:v>2317</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6297</c:v>
+                  <c:v>2834</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7428</c:v>
+                  <c:v>3343</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9074</c:v>
+                  <c:v>4083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11070</c:v>
+                  <c:v>4980</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13056</c:v>
+                  <c:v>5874</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15396</c:v>
+                  <c:v>6930</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>9609</c:v>
@@ -1797,6 +1801,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1859,6 +1864,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1936,64 +1942,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>122</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>178</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>210</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>257</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>302</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>370</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>437</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>535</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>630</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>769</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>908</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1107</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1305</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1539</c:v>
+                  <c:v>693</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>972</c:v>
@@ -2102,6 +2108,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2164,6 +2171,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2516,7 +2524,7 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2619,10 +2627,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C4" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6">
         <v>12</v>
@@ -2642,10 +2650,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C5" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6">
         <v>12</v>
@@ -2665,10 +2673,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="C6" s="5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" s="6">
         <v>12</v>
@@ -2678,11 +2686,11 @@
       </c>
       <c r="F6" s="6">
         <f>B6*2</f>
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="G6" s="6">
         <f>C6*1.5</f>
-        <v>25.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1">
@@ -2690,10 +2698,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6">
         <v>12</v>
@@ -2713,10 +2721,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="C8" s="5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6">
         <v>12</v>
@@ -2736,10 +2744,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="C9" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D9" s="6">
         <v>12</v>
@@ -2748,12 +2756,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9:F72" si="0">B9*2</f>
-        <v>394</v>
+        <f t="shared" ref="F9" si="0">B9*2</f>
+        <v>236</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" ref="G9:G72" si="1">C9*1.5</f>
-        <v>30</v>
+        <f t="shared" ref="G9" si="1">C9*1.5</f>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1">
@@ -2761,10 +2769,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="5">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="C10" s="5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6">
         <v>12</v>
@@ -2784,10 +2792,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="5">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="C11" s="5">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6">
         <v>12</v>
@@ -2807,10 +2815,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="5">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="C12" s="5">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D12" s="6">
         <v>12</v>
@@ -2819,12 +2827,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" ref="F12:F75" si="2">B12*2</f>
-        <v>466</v>
+        <f t="shared" ref="F12" si="2">B12*2</f>
+        <v>280</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" ref="G12:G75" si="3">C12*1.5</f>
-        <v>34.5</v>
+        <f t="shared" ref="G12" si="3">C12*1.5</f>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1">
@@ -2832,10 +2840,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="5">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="C13" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13" s="6">
         <v>12</v>
@@ -2855,10 +2863,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="5">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="C14" s="5">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6">
         <v>12</v>
@@ -2878,10 +2886,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="5">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="C15" s="5">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D15" s="6">
         <v>12</v>
@@ -2890,12 +2898,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:F78" si="4">B15*2</f>
-        <v>550</v>
+        <f t="shared" ref="F15" si="4">B15*2</f>
+        <v>330</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" ref="G15:G78" si="5">C15*1.5</f>
-        <v>40.5</v>
+        <f t="shared" ref="G15" si="5">C15*1.5</f>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1">
@@ -2903,10 +2911,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="5">
-        <v>290</v>
+        <v>174</v>
       </c>
       <c r="C16" s="5">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D16" s="6">
         <v>12</v>
@@ -2926,10 +2934,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="5">
-        <v>307</v>
+        <v>184</v>
       </c>
       <c r="C17" s="5">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D17" s="6">
         <v>12</v>
@@ -2949,10 +2957,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="5">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="C18" s="5">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D18" s="6">
         <v>12</v>
@@ -2961,12 +2969,12 @@
         <v>1</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" ref="F18:F81" si="6">B18*2</f>
-        <v>648</v>
+        <f t="shared" ref="F18" si="6">B18*2</f>
+        <v>388</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" ref="G18:G81" si="7">C18*1.5</f>
-        <v>48</v>
+        <f t="shared" ref="G18" si="7">C18*1.5</f>
+        <v>28.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
@@ -2974,10 +2982,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="5">
-        <v>342</v>
+        <v>205</v>
       </c>
       <c r="C19" s="5">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D19" s="6">
         <v>15</v>
@@ -2997,10 +3005,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="5">
-        <v>362</v>
+        <v>217</v>
       </c>
       <c r="C20" s="5">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D20" s="6">
         <v>15</v>
@@ -3020,10 +3028,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="5">
-        <v>382</v>
+        <v>229</v>
       </c>
       <c r="C21" s="5">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D21" s="6">
         <v>15</v>
@@ -3032,12 +3040,12 @@
         <v>1</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:F84" si="8">B21*2</f>
-        <v>764</v>
+        <f t="shared" ref="F21" si="8">B21*2</f>
+        <v>458</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21:G84" si="9">C21*1.5</f>
-        <v>57</v>
+        <f t="shared" ref="G21" si="9">C21*1.5</f>
+        <v>34.5</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1">
@@ -3045,10 +3053,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="5">
-        <v>404</v>
+        <v>242</v>
       </c>
       <c r="C22" s="5">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D22" s="6">
         <v>15</v>
@@ -3068,10 +3076,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="5">
-        <v>427</v>
+        <v>256</v>
       </c>
       <c r="C23" s="5">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D23" s="6">
         <v>15</v>
@@ -3091,10 +3099,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="5">
-        <v>451</v>
+        <v>270</v>
       </c>
       <c r="C24" s="5">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D24" s="6">
         <v>15</v>
@@ -3103,12 +3111,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" ref="F24:F87" si="10">B24*2</f>
-        <v>902</v>
+        <f t="shared" ref="F24" si="10">B24*2</f>
+        <v>540</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" ref="G24:G87" si="11">C24*1.5</f>
-        <v>67.5</v>
+        <f t="shared" ref="G24" si="11">C24*1.5</f>
+        <v>40.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1">
@@ -3116,10 +3124,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="5">
-        <v>476</v>
+        <v>286</v>
       </c>
       <c r="C25" s="5">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D25" s="6">
         <v>15</v>
@@ -3139,10 +3147,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="5">
-        <v>503</v>
+        <v>302</v>
       </c>
       <c r="C26" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D26" s="6">
         <v>15</v>
@@ -3162,10 +3170,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="5">
-        <v>531</v>
+        <v>319</v>
       </c>
       <c r="C27" s="5">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D27" s="6">
         <v>15</v>
@@ -3174,12 +3182,12 @@
         <v>1</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" ref="F27:F90" si="12">B27*2</f>
-        <v>1062</v>
+        <f t="shared" ref="F27" si="12">B27*2</f>
+        <v>638</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" ref="G27:G90" si="13">C27*1.5</f>
-        <v>79.5</v>
+        <f t="shared" ref="G27" si="13">C27*1.5</f>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" customHeight="1">
@@ -3187,10 +3195,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="5">
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="C28" s="5">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D28" s="6">
         <v>15</v>
@@ -3210,10 +3218,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="5">
-        <v>593</v>
+        <v>356</v>
       </c>
       <c r="C29" s="5">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D29" s="6">
         <v>15</v>
@@ -3233,10 +3241,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="5">
-        <v>627</v>
+        <v>376</v>
       </c>
       <c r="C30" s="5">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D30" s="6">
         <v>15</v>
@@ -3245,12 +3253,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" ref="F30:F93" si="14">B30*2</f>
-        <v>1254</v>
+        <f t="shared" ref="F30" si="14">B30*2</f>
+        <v>752</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" ref="G30:G93" si="15">C30*1.5</f>
-        <v>94.5</v>
+        <f t="shared" ref="G30" si="15">C30*1.5</f>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" customHeight="1">
@@ -3258,10 +3266,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="5">
-        <v>662</v>
+        <v>397</v>
       </c>
       <c r="C31" s="5">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D31" s="6">
         <v>15</v>
@@ -3281,10 +3289,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="5">
-        <v>700</v>
+        <v>420</v>
       </c>
       <c r="C32" s="5">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D32" s="6">
         <v>15</v>
@@ -3304,10 +3312,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="5">
-        <v>739</v>
+        <v>444</v>
       </c>
       <c r="C33" s="5">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D33" s="6">
         <v>15</v>
@@ -3316,12 +3324,12 @@
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" ref="F33:F96" si="16">B33*2</f>
-        <v>1478</v>
+        <f t="shared" ref="F33" si="16">B33*2</f>
+        <v>888</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" ref="G33:G96" si="17">C33*1.5</f>
-        <v>111</v>
+        <f t="shared" ref="G33" si="17">C33*1.5</f>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1">
@@ -3329,10 +3337,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="5">
-        <v>781</v>
+        <v>469</v>
       </c>
       <c r="C34" s="5">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D34" s="6">
         <v>23</v>
@@ -3352,10 +3360,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="5">
-        <v>825</v>
+        <v>495</v>
       </c>
       <c r="C35" s="5">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D35" s="6">
         <v>23</v>
@@ -3375,10 +3383,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="5">
-        <v>872</v>
+        <v>523</v>
       </c>
       <c r="C36" s="5">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D36" s="6">
         <v>23</v>
@@ -3387,12 +3395,12 @@
         <v>1</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" ref="F36:F99" si="18">B36*2</f>
-        <v>1744</v>
+        <f t="shared" ref="F36" si="18">B36*2</f>
+        <v>1046</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" ref="G36:G99" si="19">C36*1.5</f>
-        <v>130.5</v>
+        <f t="shared" ref="G36" si="19">C36*1.5</f>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
@@ -3400,10 +3408,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="5">
-        <v>921</v>
+        <v>553</v>
       </c>
       <c r="C37" s="5">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D37" s="6">
         <v>23</v>
@@ -3423,10 +3431,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="5">
-        <v>973</v>
+        <v>584</v>
       </c>
       <c r="C38" s="5">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="D38" s="6">
         <v>23</v>
@@ -3446,10 +3454,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="5">
-        <v>1028</v>
+        <v>617</v>
       </c>
       <c r="C39" s="5">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D39" s="6">
         <v>23</v>
@@ -3458,12 +3466,12 @@
         <v>1</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" ref="F39:F102" si="20">B39*2</f>
-        <v>2056</v>
+        <f t="shared" ref="F39" si="20">B39*2</f>
+        <v>1234</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" ref="G39:G102" si="21">C39*1.5</f>
-        <v>154.5</v>
+        <f t="shared" ref="G39" si="21">C39*1.5</f>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
@@ -3471,10 +3479,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="5">
-        <v>1086</v>
+        <v>652</v>
       </c>
       <c r="C40" s="5">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D40" s="6">
         <v>23</v>
@@ -3494,10 +3502,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5">
-        <v>1148</v>
+        <v>689</v>
       </c>
       <c r="C41" s="5">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="D41" s="6">
         <v>23</v>
@@ -3517,10 +3525,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="5">
-        <v>1213</v>
+        <v>728</v>
       </c>
       <c r="C42" s="5">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="D42" s="6">
         <v>23</v>
@@ -3529,12 +3537,12 @@
         <v>1</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" ref="F42:F105" si="22">B42*2</f>
-        <v>2426</v>
+        <f t="shared" ref="F42" si="22">B42*2</f>
+        <v>1456</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" ref="G42:G105" si="23">C42*1.5</f>
-        <v>181.5</v>
+        <f t="shared" ref="G42" si="23">C42*1.5</f>
+        <v>109.5</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
@@ -3542,10 +3550,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="5">
-        <v>1281</v>
+        <v>769</v>
       </c>
       <c r="C43" s="5">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D43" s="6">
         <v>23</v>
@@ -3565,10 +3573,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="5">
-        <v>1354</v>
+        <v>812</v>
       </c>
       <c r="C44" s="5">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="D44" s="6">
         <v>23</v>
@@ -3588,10 +3596,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="5">
-        <v>1430</v>
+        <v>858</v>
       </c>
       <c r="C45" s="5">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="D45" s="6">
         <v>23</v>
@@ -3600,12 +3608,12 @@
         <v>1</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" ref="F45:F108" si="24">B45*2</f>
-        <v>2860</v>
+        <f t="shared" ref="F45" si="24">B45*2</f>
+        <v>1716</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" ref="G45:G108" si="25">C45*1.5</f>
-        <v>214.5</v>
+        <f t="shared" ref="G45" si="25">C45*1.5</f>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
@@ -3613,10 +3621,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="5">
-        <v>1511</v>
+        <v>907</v>
       </c>
       <c r="C46" s="5">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="D46" s="6">
         <v>23</v>
@@ -3636,10 +3644,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="5">
-        <v>1597</v>
+        <v>958</v>
       </c>
       <c r="C47" s="5">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="D47" s="6">
         <v>23</v>
@@ -3659,10 +3667,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="5">
-        <v>1687</v>
+        <v>1012</v>
       </c>
       <c r="C48" s="5">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="D48" s="6">
         <v>23</v>
@@ -3671,12 +3679,12 @@
         <v>1</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" ref="F48:F111" si="26">B48*2</f>
-        <v>3374</v>
+        <f t="shared" ref="F48" si="26">B48*2</f>
+        <v>2024</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" ref="G48:G111" si="27">C48*1.5</f>
-        <v>253.5</v>
+        <f t="shared" ref="G48" si="27">C48*1.5</f>
+        <v>151.5</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" customHeight="1">
@@ -3684,10 +3692,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="5">
-        <v>1782</v>
+        <v>1069</v>
       </c>
       <c r="C49" s="5">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="D49" s="6">
         <v>27</v>
@@ -3707,10 +3715,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="5">
-        <v>1883</v>
+        <v>1130</v>
       </c>
       <c r="C50" s="5">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="D50" s="6">
         <v>27</v>
@@ -3730,10 +3738,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="5">
-        <v>1989</v>
+        <v>1194</v>
       </c>
       <c r="C51" s="5">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="D51" s="6">
         <v>27</v>
@@ -3742,12 +3750,12 @@
         <v>1</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" ref="F51:F114" si="28">B51*2</f>
-        <v>3978</v>
+        <f t="shared" ref="F51" si="28">B51*2</f>
+        <v>2388</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" ref="G51:G114" si="29">C51*1.5</f>
-        <v>298.5</v>
+        <f t="shared" ref="G51" si="29">C51*1.5</f>
+        <v>178.5</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" customHeight="1">
@@ -3755,10 +3763,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="5">
-        <v>2102</v>
+        <v>1261</v>
       </c>
       <c r="C52" s="5">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="D52" s="6">
         <v>27</v>
@@ -3778,10 +3786,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="5">
-        <v>2221</v>
+        <v>1332</v>
       </c>
       <c r="C53" s="5">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="D53" s="6">
         <v>27</v>
@@ -3801,10 +3809,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="5">
-        <v>2346</v>
+        <v>1408</v>
       </c>
       <c r="C54" s="5">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="D54" s="6">
         <v>27</v>
@@ -3813,12 +3821,12 @@
         <v>1</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" ref="F54:F117" si="30">B54*2</f>
-        <v>4692</v>
+        <f t="shared" ref="F54" si="30">B54*2</f>
+        <v>2816</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" ref="G54:G117" si="31">C54*1.5</f>
-        <v>352.5</v>
+        <f t="shared" ref="G54" si="31">C54*1.5</f>
+        <v>211.5</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" customHeight="1">
@@ -3826,10 +3834,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="5">
-        <v>2479</v>
+        <v>1487</v>
       </c>
       <c r="C55" s="5">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="D55" s="6">
         <v>27</v>
@@ -3849,10 +3857,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="5">
-        <v>2619</v>
+        <v>1572</v>
       </c>
       <c r="C56" s="5">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="D56" s="6">
         <v>27</v>
@@ -3872,10 +3880,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="5">
-        <v>2767</v>
+        <v>1660</v>
       </c>
       <c r="C57" s="5">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="D57" s="6">
         <v>27</v>
@@ -3884,12 +3892,12 @@
         <v>1</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" ref="F57:F120" si="32">B57*2</f>
-        <v>5534</v>
+        <f t="shared" ref="F57" si="32">B57*2</f>
+        <v>3320</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" ref="G57:G120" si="33">C57*1.5</f>
-        <v>415.5</v>
+        <f t="shared" ref="G57" si="33">C57*1.5</f>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5" customHeight="1">
@@ -3897,10 +3905,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="5">
-        <v>2924</v>
+        <v>1754</v>
       </c>
       <c r="C58" s="5">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="D58" s="6">
         <v>27</v>
@@ -3920,10 +3928,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="5">
-        <v>3089</v>
+        <v>1853</v>
       </c>
       <c r="C59" s="5">
-        <v>309</v>
+        <v>185</v>
       </c>
       <c r="D59" s="6">
         <v>27</v>
@@ -3943,10 +3951,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="5">
-        <v>3264</v>
+        <v>1958</v>
       </c>
       <c r="C60" s="5">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="D60" s="6">
         <v>27</v>
@@ -3955,12 +3963,12 @@
         <v>1</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" ref="F60:F123" si="34">B60*2</f>
-        <v>6528</v>
+        <f t="shared" ref="F60" si="34">B60*2</f>
+        <v>3916</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" ref="G60:G123" si="35">C60*1.5</f>
-        <v>489</v>
+        <f t="shared" ref="G60" si="35">C60*1.5</f>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" customHeight="1">
@@ -3968,10 +3976,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="5">
-        <v>3448</v>
+        <v>2069</v>
       </c>
       <c r="C61" s="5">
-        <v>345</v>
+        <v>207</v>
       </c>
       <c r="D61" s="6">
         <v>27</v>
@@ -3991,10 +3999,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="5">
-        <v>3643</v>
+        <v>2186</v>
       </c>
       <c r="C62" s="5">
-        <v>364</v>
+        <v>219</v>
       </c>
       <c r="D62" s="6">
         <v>27</v>
@@ -4014,10 +4022,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="5">
-        <v>3849</v>
+        <v>2310</v>
       </c>
       <c r="C63" s="5">
-        <v>385</v>
+        <v>231</v>
       </c>
       <c r="D63" s="6">
         <v>27</v>
@@ -4026,12 +4034,12 @@
         <v>1</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" ref="F63:F126" si="36">B63*2</f>
-        <v>7698</v>
+        <f t="shared" ref="F63" si="36">B63*2</f>
+        <v>4620</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" ref="G63:G126" si="37">C63*1.5</f>
-        <v>577.5</v>
+        <f t="shared" ref="G63" si="37">C63*1.5</f>
+        <v>346.5</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" customHeight="1">
@@ -4097,11 +4105,11 @@
         <v>1</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" ref="F66:F129" si="38">B66*2</f>
+        <f t="shared" ref="F66" si="38">B66*2</f>
         <v>6406</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" ref="G66:G129" si="39">C66*1.5</f>
+        <f t="shared" ref="G66" si="39">C66*1.5</f>
         <v>486</v>
       </c>
     </row>
@@ -4168,11 +4176,11 @@
         <v>1</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" ref="F69:F132" si="40">B69*2</f>
+        <f t="shared" ref="F69" si="40">B69*2</f>
         <v>6766</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" ref="G69:G132" si="41">C69*1.5</f>
+        <f t="shared" ref="G69" si="41">C69*1.5</f>
         <v>522</v>
       </c>
     </row>
@@ -4239,11 +4247,11 @@
         <v>1</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" ref="F72:F135" si="42">B72*2</f>
+        <f t="shared" ref="F72" si="42">B72*2</f>
         <v>7126</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" ref="G72:G135" si="43">C72*1.5</f>
+        <f t="shared" ref="G72" si="43">C72*1.5</f>
         <v>558</v>
       </c>
     </row>
@@ -4310,11 +4318,11 @@
         <v>1</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" ref="F75:F138" si="44">B75*2</f>
+        <f t="shared" ref="F75" si="44">B75*2</f>
         <v>7486</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" ref="G75:G138" si="45">C75*1.5</f>
+        <f t="shared" ref="G75" si="45">C75*1.5</f>
         <v>594</v>
       </c>
     </row>
@@ -4381,11 +4389,11 @@
         <v>1</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" ref="F78:F141" si="46">B78*2</f>
+        <f t="shared" ref="F78" si="46">B78*2</f>
         <v>7846</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" ref="G78:G141" si="47">C78*1.5</f>
+        <f t="shared" ref="G78" si="47">C78*1.5</f>
         <v>630</v>
       </c>
     </row>
@@ -4452,11 +4460,11 @@
         <v>1</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" ref="F81:F144" si="48">B81*2</f>
+        <f t="shared" ref="F81" si="48">B81*2</f>
         <v>8206</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" ref="G81:G144" si="49">C81*1.5</f>
+        <f t="shared" ref="G81" si="49">C81*1.5</f>
         <v>666</v>
       </c>
     </row>
@@ -4523,11 +4531,11 @@
         <v>1</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" ref="F84:F147" si="50">B84*2</f>
+        <f t="shared" ref="F84" si="50">B84*2</f>
         <v>8566</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" ref="G84:G147" si="51">C84*1.5</f>
+        <f t="shared" ref="G84" si="51">C84*1.5</f>
         <v>702</v>
       </c>
     </row>
@@ -4594,11 +4602,11 @@
         <v>1</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" ref="F87:F150" si="52">B87*2</f>
+        <f t="shared" ref="F87" si="52">B87*2</f>
         <v>11950</v>
       </c>
       <c r="G87" s="6">
-        <f t="shared" ref="G87:G150" si="53">C87*1.5</f>
+        <f t="shared" ref="G87" si="53">C87*1.5</f>
         <v>1242</v>
       </c>
     </row>
@@ -4665,11 +4673,11 @@
         <v>1</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" ref="F90:F153" si="54">B90*2</f>
+        <f t="shared" ref="F90" si="54">B90*2</f>
         <v>12418</v>
       </c>
       <c r="G90" s="6">
-        <f t="shared" ref="G90:G153" si="55">C90*1.5</f>
+        <f t="shared" ref="G90" si="55">C90*1.5</f>
         <v>1296</v>
       </c>
     </row>
@@ -4736,11 +4744,11 @@
         <v>1</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" ref="F93:F156" si="56">B93*2</f>
+        <f t="shared" ref="F93" si="56">B93*2</f>
         <v>12886</v>
       </c>
       <c r="G93" s="6">
-        <f t="shared" ref="G93:G156" si="57">C93*1.5</f>
+        <f t="shared" ref="G93" si="57">C93*1.5</f>
         <v>1350</v>
       </c>
     </row>
@@ -4807,11 +4815,11 @@
         <v>1</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" ref="F96:F159" si="58">B96*2</f>
+        <f t="shared" ref="F96" si="58">B96*2</f>
         <v>13354</v>
       </c>
       <c r="G96" s="6">
-        <f t="shared" ref="G96:G159" si="59">C96*1.5</f>
+        <f t="shared" ref="G96" si="59">C96*1.5</f>
         <v>1404</v>
       </c>
     </row>
@@ -4878,11 +4886,11 @@
         <v>1</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" ref="F99:F162" si="60">B99*2</f>
+        <f t="shared" ref="F99" si="60">B99*2</f>
         <v>13822</v>
       </c>
       <c r="G99" s="6">
-        <f t="shared" ref="G99:G162" si="61">C99*1.5</f>
+        <f t="shared" ref="G99" si="61">C99*1.5</f>
         <v>1458</v>
       </c>
     </row>
@@ -4949,11 +4957,11 @@
         <v>1</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" ref="F102:F165" si="62">B102*2</f>
+        <f t="shared" ref="F102" si="62">B102*2</f>
         <v>14290</v>
       </c>
       <c r="G102" s="6">
-        <f t="shared" ref="G102:G165" si="63">C102*1.5</f>
+        <f t="shared" ref="G102" si="63">C102*1.5</f>
         <v>1512</v>
       </c>
     </row>
@@ -5020,11 +5028,11 @@
         <v>1</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" ref="F105:F168" si="64">B105*2</f>
+        <f t="shared" ref="F105" si="64">B105*2</f>
         <v>14758</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" ref="G105:G168" si="65">C105*1.5</f>
+        <f t="shared" ref="G105" si="65">C105*1.5</f>
         <v>1566</v>
       </c>
     </row>
@@ -5091,11 +5099,11 @@
         <v>1</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" ref="F108:F171" si="66">B108*2</f>
+        <f t="shared" ref="F108" si="66">B108*2</f>
         <v>15226</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" ref="G108:G171" si="67">C108*1.5</f>
+        <f t="shared" ref="G108" si="67">C108*1.5</f>
         <v>1620</v>
       </c>
     </row>
@@ -5162,11 +5170,11 @@
         <v>1</v>
       </c>
       <c r="F111" s="6">
-        <f t="shared" ref="F111:F174" si="68">B111*2</f>
+        <f t="shared" ref="F111" si="68">B111*2</f>
         <v>15694</v>
       </c>
       <c r="G111" s="6">
-        <f t="shared" ref="G111:G174" si="69">C111*1.5</f>
+        <f t="shared" ref="G111" si="69">C111*1.5</f>
         <v>1674</v>
       </c>
     </row>
@@ -5233,11 +5241,11 @@
         <v>1</v>
       </c>
       <c r="F114" s="6">
-        <f t="shared" ref="F114:F177" si="70">B114*2</f>
+        <f t="shared" ref="F114" si="70">B114*2</f>
         <v>16162</v>
       </c>
       <c r="G114" s="6">
-        <f t="shared" ref="G114:G177" si="71">C114*1.5</f>
+        <f t="shared" ref="G114" si="71">C114*1.5</f>
         <v>1728</v>
       </c>
     </row>
@@ -5304,11 +5312,11 @@
         <v>1</v>
       </c>
       <c r="F117" s="6">
-        <f t="shared" ref="F117:F180" si="72">B117*2</f>
+        <f t="shared" ref="F117" si="72">B117*2</f>
         <v>16630</v>
       </c>
       <c r="G117" s="6">
-        <f t="shared" ref="G117:G180" si="73">C117*1.5</f>
+        <f t="shared" ref="G117" si="73">C117*1.5</f>
         <v>1782</v>
       </c>
     </row>
@@ -5375,11 +5383,11 @@
         <v>1</v>
       </c>
       <c r="F120" s="6">
-        <f t="shared" ref="F120:F183" si="74">B120*2</f>
+        <f t="shared" ref="F120" si="74">B120*2</f>
         <v>17098</v>
       </c>
       <c r="G120" s="6">
-        <f t="shared" ref="G120:G183" si="75">C120*1.5</f>
+        <f t="shared" ref="G120" si="75">C120*1.5</f>
         <v>1836</v>
       </c>
     </row>
@@ -5446,11 +5454,11 @@
         <v>1</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" ref="F123:F186" si="76">B123*2</f>
+        <f t="shared" ref="F123" si="76">B123*2</f>
         <v>17566</v>
       </c>
       <c r="G123" s="6">
-        <f t="shared" ref="G123:G186" si="77">C123*1.5</f>
+        <f t="shared" ref="G123" si="77">C123*1.5</f>
         <v>1890</v>
       </c>
     </row>
@@ -5517,11 +5525,11 @@
         <v>1</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" ref="F126:F189" si="78">B126*2</f>
+        <f t="shared" ref="F126" si="78">B126*2</f>
         <v>18034</v>
       </c>
       <c r="G126" s="6">
-        <f t="shared" ref="G126:G189" si="79">C126*1.5</f>
+        <f t="shared" ref="G126" si="79">C126*1.5</f>
         <v>1944</v>
       </c>
     </row>
@@ -5588,11 +5596,11 @@
         <v>1</v>
       </c>
       <c r="F129" s="6">
-        <f t="shared" ref="F129:F192" si="80">B129*2</f>
+        <f t="shared" ref="F129" si="80">B129*2</f>
         <v>18502</v>
       </c>
       <c r="G129" s="6">
-        <f t="shared" ref="G129:G192" si="81">C129*1.5</f>
+        <f t="shared" ref="G129" si="81">C129*1.5</f>
         <v>1998</v>
       </c>
     </row>
@@ -5659,11 +5667,11 @@
         <v>1</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" ref="F132:F195" si="82">B132*2</f>
+        <f t="shared" ref="F132" si="82">B132*2</f>
         <v>18970</v>
       </c>
       <c r="G132" s="6">
-        <f t="shared" ref="G132:G195" si="83">C132*1.5</f>
+        <f t="shared" ref="G132" si="83">C132*1.5</f>
         <v>2052</v>
       </c>
     </row>
@@ -5730,11 +5738,11 @@
         <v>1</v>
       </c>
       <c r="F135" s="6">
-        <f t="shared" ref="F135:F198" si="84">B135*2</f>
+        <f t="shared" ref="F135" si="84">B135*2</f>
         <v>19438</v>
       </c>
       <c r="G135" s="6">
-        <f t="shared" ref="G135:G198" si="85">C135*1.5</f>
+        <f t="shared" ref="G135" si="85">C135*1.5</f>
         <v>2106</v>
       </c>
     </row>
@@ -5801,11 +5809,11 @@
         <v>1</v>
       </c>
       <c r="F138" s="6">
-        <f t="shared" ref="F138:F201" si="86">B138*2</f>
+        <f t="shared" ref="F138" si="86">B138*2</f>
         <v>19906</v>
       </c>
       <c r="G138" s="6">
-        <f t="shared" ref="G138:G201" si="87">C138*1.5</f>
+        <f t="shared" ref="G138" si="87">C138*1.5</f>
         <v>2160</v>
       </c>
     </row>
@@ -5872,11 +5880,11 @@
         <v>1</v>
       </c>
       <c r="F141" s="6">
-        <f t="shared" ref="F141:F204" si="88">B141*2</f>
+        <f t="shared" ref="F141" si="88">B141*2</f>
         <v>20374</v>
       </c>
       <c r="G141" s="6">
-        <f t="shared" ref="G141:G204" si="89">C141*1.5</f>
+        <f t="shared" ref="G141" si="89">C141*1.5</f>
         <v>2214</v>
       </c>
     </row>
@@ -5943,11 +5951,11 @@
         <v>1</v>
       </c>
       <c r="F144" s="6">
-        <f t="shared" ref="F144:F207" si="90">B144*2</f>
+        <f t="shared" ref="F144" si="90">B144*2</f>
         <v>20842</v>
       </c>
       <c r="G144" s="6">
-        <f t="shared" ref="G144:G207" si="91">C144*1.5</f>
+        <f t="shared" ref="G144" si="91">C144*1.5</f>
         <v>2268</v>
       </c>
     </row>
@@ -6014,11 +6022,11 @@
         <v>1</v>
       </c>
       <c r="F147" s="6">
-        <f t="shared" ref="F147:F210" si="92">B147*2</f>
+        <f t="shared" ref="F147" si="92">B147*2</f>
         <v>21310</v>
       </c>
       <c r="G147" s="6">
-        <f t="shared" ref="G147:G210" si="93">C147*1.5</f>
+        <f t="shared" ref="G147" si="93">C147*1.5</f>
         <v>2322</v>
       </c>
     </row>
@@ -6085,11 +6093,11 @@
         <v>1</v>
       </c>
       <c r="F150" s="6">
-        <f t="shared" ref="F150:F213" si="94">B150*2</f>
+        <f t="shared" ref="F150" si="94">B150*2</f>
         <v>21778</v>
       </c>
       <c r="G150" s="6">
-        <f t="shared" ref="G150:G213" si="95">C150*1.5</f>
+        <f t="shared" ref="G150" si="95">C150*1.5</f>
         <v>2376</v>
       </c>
     </row>
@@ -6156,11 +6164,11 @@
         <v>1</v>
       </c>
       <c r="F153" s="6">
-        <f t="shared" ref="F153:F216" si="96">B153*2</f>
+        <f t="shared" ref="F153" si="96">B153*2</f>
         <v>22246</v>
       </c>
       <c r="G153" s="6">
-        <f t="shared" ref="G153:G216" si="97">C153*1.5</f>
+        <f t="shared" ref="G153" si="97">C153*1.5</f>
         <v>2430</v>
       </c>
     </row>
@@ -6227,11 +6235,11 @@
         <v>1</v>
       </c>
       <c r="F156" s="6">
-        <f t="shared" ref="F156:F219" si="98">B156*2</f>
+        <f t="shared" ref="F156" si="98">B156*2</f>
         <v>22714</v>
       </c>
       <c r="G156" s="6">
-        <f t="shared" ref="G156:G219" si="99">C156*1.5</f>
+        <f t="shared" ref="G156" si="99">C156*1.5</f>
         <v>2484</v>
       </c>
     </row>
@@ -6298,11 +6306,11 @@
         <v>1</v>
       </c>
       <c r="F159" s="6">
-        <f t="shared" ref="F159:F222" si="100">B159*2</f>
+        <f t="shared" ref="F159" si="100">B159*2</f>
         <v>23182</v>
       </c>
       <c r="G159" s="6">
-        <f t="shared" ref="G159:G222" si="101">C159*1.5</f>
+        <f t="shared" ref="G159" si="101">C159*1.5</f>
         <v>2538</v>
       </c>
     </row>
@@ -6369,11 +6377,11 @@
         <v>1</v>
       </c>
       <c r="F162" s="6">
-        <f t="shared" ref="F162:F225" si="102">B162*2</f>
+        <f t="shared" ref="F162" si="102">B162*2</f>
         <v>23650</v>
       </c>
       <c r="G162" s="6">
-        <f t="shared" ref="G162:G225" si="103">C162*1.5</f>
+        <f t="shared" ref="G162" si="103">C162*1.5</f>
         <v>2592</v>
       </c>
     </row>
@@ -6440,11 +6448,11 @@
         <v>1</v>
       </c>
       <c r="F165" s="6">
-        <f t="shared" ref="F165:F228" si="104">B165*2</f>
+        <f t="shared" ref="F165" si="104">B165*2</f>
         <v>24118</v>
       </c>
       <c r="G165" s="6">
-        <f t="shared" ref="G165:G228" si="105">C165*1.5</f>
+        <f t="shared" ref="G165" si="105">C165*1.5</f>
         <v>2646</v>
       </c>
     </row>
@@ -6511,11 +6519,11 @@
         <v>1</v>
       </c>
       <c r="F168" s="6">
-        <f t="shared" ref="F168:F231" si="106">B168*2</f>
+        <f t="shared" ref="F168" si="106">B168*2</f>
         <v>24586</v>
       </c>
       <c r="G168" s="6">
-        <f t="shared" ref="G168:G231" si="107">C168*1.5</f>
+        <f t="shared" ref="G168" si="107">C168*1.5</f>
         <v>2700</v>
       </c>
     </row>
@@ -6582,11 +6590,11 @@
         <v>1</v>
       </c>
       <c r="F171" s="6">
-        <f t="shared" ref="F171:F234" si="108">B171*2</f>
+        <f t="shared" ref="F171" si="108">B171*2</f>
         <v>25054</v>
       </c>
       <c r="G171" s="6">
-        <f t="shared" ref="G171:G234" si="109">C171*1.5</f>
+        <f t="shared" ref="G171" si="109">C171*1.5</f>
         <v>2754</v>
       </c>
     </row>
@@ -6653,11 +6661,11 @@
         <v>1</v>
       </c>
       <c r="F174" s="6">
-        <f t="shared" ref="F174:F237" si="110">B174*2</f>
+        <f t="shared" ref="F174" si="110">B174*2</f>
         <v>25522</v>
       </c>
       <c r="G174" s="6">
-        <f t="shared" ref="G174:G237" si="111">C174*1.5</f>
+        <f t="shared" ref="G174" si="111">C174*1.5</f>
         <v>2808</v>
       </c>
     </row>
@@ -6724,11 +6732,11 @@
         <v>1</v>
       </c>
       <c r="F177" s="6">
-        <f t="shared" ref="F177:F240" si="112">B177*2</f>
+        <f t="shared" ref="F177" si="112">B177*2</f>
         <v>25990</v>
       </c>
       <c r="G177" s="6">
-        <f t="shared" ref="G177:G240" si="113">C177*1.5</f>
+        <f t="shared" ref="G177" si="113">C177*1.5</f>
         <v>2862</v>
       </c>
     </row>
@@ -6795,11 +6803,11 @@
         <v>1</v>
       </c>
       <c r="F180" s="6">
-        <f t="shared" ref="F180:F243" si="114">B180*2</f>
+        <f t="shared" ref="F180" si="114">B180*2</f>
         <v>26458</v>
       </c>
       <c r="G180" s="6">
-        <f t="shared" ref="G180:G243" si="115">C180*1.5</f>
+        <f t="shared" ref="G180" si="115">C180*1.5</f>
         <v>2916</v>
       </c>
     </row>
@@ -6866,11 +6874,11 @@
         <v>1</v>
       </c>
       <c r="F183" s="6">
-        <f t="shared" ref="F183:F246" si="116">B183*2</f>
+        <f t="shared" ref="F183" si="116">B183*2</f>
         <v>26926</v>
       </c>
       <c r="G183" s="6">
-        <f t="shared" ref="G183:G246" si="117">C183*1.5</f>
+        <f t="shared" ref="G183" si="117">C183*1.5</f>
         <v>2970</v>
       </c>
     </row>
@@ -6937,11 +6945,11 @@
         <v>1</v>
       </c>
       <c r="F186" s="6">
-        <f t="shared" ref="F186:F249" si="118">B186*2</f>
+        <f t="shared" ref="F186" si="118">B186*2</f>
         <v>27394</v>
       </c>
       <c r="G186" s="6">
-        <f t="shared" ref="G186:G249" si="119">C186*1.5</f>
+        <f t="shared" ref="G186" si="119">C186*1.5</f>
         <v>3024</v>
       </c>
     </row>
@@ -7008,11 +7016,11 @@
         <v>1</v>
       </c>
       <c r="F189" s="6">
-        <f t="shared" ref="F189:F252" si="120">B189*2</f>
+        <f t="shared" ref="F189" si="120">B189*2</f>
         <v>27862</v>
       </c>
       <c r="G189" s="6">
-        <f t="shared" ref="G189:G252" si="121">C189*1.5</f>
+        <f t="shared" ref="G189" si="121">C189*1.5</f>
         <v>3078</v>
       </c>
     </row>
@@ -7079,11 +7087,11 @@
         <v>1</v>
       </c>
       <c r="F192" s="6">
-        <f t="shared" ref="F192:F255" si="122">B192*2</f>
+        <f t="shared" ref="F192" si="122">B192*2</f>
         <v>28330</v>
       </c>
       <c r="G192" s="6">
-        <f t="shared" ref="G192:G255" si="123">C192*1.5</f>
+        <f t="shared" ref="G192" si="123">C192*1.5</f>
         <v>3132</v>
       </c>
     </row>
@@ -7150,11 +7158,11 @@
         <v>1</v>
       </c>
       <c r="F195" s="6">
-        <f t="shared" ref="F195:F258" si="124">B195*2</f>
+        <f t="shared" ref="F195" si="124">B195*2</f>
         <v>28798</v>
       </c>
       <c r="G195" s="6">
-        <f t="shared" ref="G195:G258" si="125">C195*1.5</f>
+        <f t="shared" ref="G195" si="125">C195*1.5</f>
         <v>3186</v>
       </c>
     </row>
@@ -7221,11 +7229,11 @@
         <v>1</v>
       </c>
       <c r="F198" s="6">
-        <f t="shared" ref="F198:F261" si="126">B198*2</f>
+        <f t="shared" ref="F198" si="126">B198*2</f>
         <v>29266</v>
       </c>
       <c r="G198" s="6">
-        <f t="shared" ref="G198:G261" si="127">C198*1.5</f>
+        <f t="shared" ref="G198" si="127">C198*1.5</f>
         <v>3240</v>
       </c>
     </row>
@@ -7292,11 +7300,11 @@
         <v>1</v>
       </c>
       <c r="F201" s="6">
-        <f t="shared" ref="F201:F264" si="128">B201*2</f>
+        <f t="shared" ref="F201" si="128">B201*2</f>
         <v>29734</v>
       </c>
       <c r="G201" s="6">
-        <f t="shared" ref="G201:G264" si="129">C201*1.5</f>
+        <f t="shared" ref="G201" si="129">C201*1.5</f>
         <v>3294</v>
       </c>
     </row>
@@ -7363,11 +7371,11 @@
         <v>1</v>
       </c>
       <c r="F204" s="6">
-        <f t="shared" ref="F204:F235" si="130">B204*2</f>
+        <f t="shared" ref="F204" si="130">B204*2</f>
         <v>30202</v>
       </c>
       <c r="G204" s="6">
-        <f t="shared" ref="G204:G235" si="131">C204*1.5</f>
+        <f t="shared" ref="G204" si="131">C204*1.5</f>
         <v>3348</v>
       </c>
     </row>
@@ -7434,11 +7442,11 @@
         <v>1</v>
       </c>
       <c r="F207" s="6">
-        <f t="shared" ref="F207:F238" si="132">B207*2</f>
+        <f t="shared" ref="F207" si="132">B207*2</f>
         <v>30670</v>
       </c>
       <c r="G207" s="6">
-        <f t="shared" ref="G207:G238" si="133">C207*1.5</f>
+        <f t="shared" ref="G207" si="133">C207*1.5</f>
         <v>3402</v>
       </c>
     </row>
@@ -7505,11 +7513,11 @@
         <v>1</v>
       </c>
       <c r="F210" s="6">
-        <f t="shared" ref="F210:F241" si="134">B210*2</f>
+        <f t="shared" ref="F210" si="134">B210*2</f>
         <v>31138</v>
       </c>
       <c r="G210" s="6">
-        <f t="shared" ref="G210:G241" si="135">C210*1.5</f>
+        <f t="shared" ref="G210" si="135">C210*1.5</f>
         <v>3456</v>
       </c>
     </row>
@@ -7576,11 +7584,11 @@
         <v>1</v>
       </c>
       <c r="F213" s="6">
-        <f t="shared" ref="F213:F244" si="136">B213*2</f>
+        <f t="shared" ref="F213" si="136">B213*2</f>
         <v>31606</v>
       </c>
       <c r="G213" s="6">
-        <f t="shared" ref="G213:G244" si="137">C213*1.5</f>
+        <f t="shared" ref="G213" si="137">C213*1.5</f>
         <v>3510</v>
       </c>
     </row>
@@ -7647,11 +7655,11 @@
         <v>1</v>
       </c>
       <c r="F216" s="6">
-        <f t="shared" ref="F216:F247" si="138">B216*2</f>
+        <f t="shared" ref="F216" si="138">B216*2</f>
         <v>32074</v>
       </c>
       <c r="G216" s="6">
-        <f t="shared" ref="G216:G247" si="139">C216*1.5</f>
+        <f t="shared" ref="G216" si="139">C216*1.5</f>
         <v>3564</v>
       </c>
     </row>
@@ -7718,11 +7726,11 @@
         <v>1</v>
       </c>
       <c r="F219" s="6">
-        <f t="shared" ref="F219:F250" si="140">B219*2</f>
+        <f t="shared" ref="F219" si="140">B219*2</f>
         <v>32542</v>
       </c>
       <c r="G219" s="6">
-        <f t="shared" ref="G219:G250" si="141">C219*1.5</f>
+        <f t="shared" ref="G219" si="141">C219*1.5</f>
         <v>3618</v>
       </c>
     </row>
@@ -7789,11 +7797,11 @@
         <v>1</v>
       </c>
       <c r="F222" s="6">
-        <f t="shared" ref="F222:F253" si="142">B222*2</f>
+        <f t="shared" ref="F222" si="142">B222*2</f>
         <v>33010</v>
       </c>
       <c r="G222" s="6">
-        <f t="shared" ref="G222:G253" si="143">C222*1.5</f>
+        <f t="shared" ref="G222" si="143">C222*1.5</f>
         <v>3672</v>
       </c>
     </row>
@@ -7860,11 +7868,11 @@
         <v>1</v>
       </c>
       <c r="F225" s="6">
-        <f t="shared" ref="F225:F256" si="144">B225*2</f>
+        <f t="shared" ref="F225" si="144">B225*2</f>
         <v>33478</v>
       </c>
       <c r="G225" s="6">
-        <f t="shared" ref="G225:G256" si="145">C225*1.5</f>
+        <f t="shared" ref="G225" si="145">C225*1.5</f>
         <v>3726</v>
       </c>
     </row>
@@ -7931,11 +7939,11 @@
         <v>1</v>
       </c>
       <c r="F228" s="6">
-        <f t="shared" ref="F228:F259" si="146">B228*2</f>
+        <f t="shared" ref="F228" si="146">B228*2</f>
         <v>33946</v>
       </c>
       <c r="G228" s="6">
-        <f t="shared" ref="G228:G259" si="147">C228*1.5</f>
+        <f t="shared" ref="G228" si="147">C228*1.5</f>
         <v>3780</v>
       </c>
     </row>
@@ -8002,11 +8010,11 @@
         <v>1</v>
       </c>
       <c r="F231" s="6">
-        <f t="shared" ref="F231:F262" si="148">B231*2</f>
+        <f t="shared" ref="F231" si="148">B231*2</f>
         <v>34414</v>
       </c>
       <c r="G231" s="6">
-        <f t="shared" ref="G231:G262" si="149">C231*1.5</f>
+        <f t="shared" ref="G231" si="149">C231*1.5</f>
         <v>3834</v>
       </c>
     </row>
@@ -8073,11 +8081,11 @@
         <v>1</v>
       </c>
       <c r="F234" s="6">
-        <f t="shared" ref="F234:F265" si="150">B234*2</f>
+        <f t="shared" ref="F234" si="150">B234*2</f>
         <v>34882</v>
       </c>
       <c r="G234" s="6">
-        <f t="shared" ref="G234:G265" si="151">C234*1.5</f>
+        <f t="shared" ref="G234" si="151">C234*1.5</f>
         <v>3888</v>
       </c>
     </row>
@@ -8144,11 +8152,11 @@
         <v>1</v>
       </c>
       <c r="F237" s="6">
-        <f t="shared" ref="F237:F268" si="152">B237*2</f>
+        <f t="shared" ref="F237" si="152">B237*2</f>
         <v>35350</v>
       </c>
       <c r="G237" s="6">
-        <f t="shared" ref="G237:G268" si="153">C237*1.5</f>
+        <f t="shared" ref="G237" si="153">C237*1.5</f>
         <v>3942</v>
       </c>
     </row>
@@ -8215,11 +8223,11 @@
         <v>1</v>
       </c>
       <c r="F240" s="6">
-        <f t="shared" ref="F240:F271" si="154">B240*2</f>
+        <f t="shared" ref="F240" si="154">B240*2</f>
         <v>35818</v>
       </c>
       <c r="G240" s="6">
-        <f t="shared" ref="G240:G271" si="155">C240*1.5</f>
+        <f t="shared" ref="G240" si="155">C240*1.5</f>
         <v>3996</v>
       </c>
     </row>
@@ -8286,11 +8294,11 @@
         <v>1</v>
       </c>
       <c r="F243" s="6">
-        <f t="shared" ref="F243:F274" si="156">B243*2</f>
+        <f t="shared" ref="F243" si="156">B243*2</f>
         <v>36286</v>
       </c>
       <c r="G243" s="6">
-        <f t="shared" ref="G243:G274" si="157">C243*1.5</f>
+        <f t="shared" ref="G243" si="157">C243*1.5</f>
         <v>4050</v>
       </c>
     </row>
@@ -8357,11 +8365,11 @@
         <v>1</v>
       </c>
       <c r="F246" s="6">
-        <f t="shared" ref="F246:F277" si="158">B246*2</f>
+        <f t="shared" ref="F246" si="158">B246*2</f>
         <v>36754</v>
       </c>
       <c r="G246" s="6">
-        <f t="shared" ref="G246:G277" si="159">C246*1.5</f>
+        <f t="shared" ref="G246" si="159">C246*1.5</f>
         <v>4104</v>
       </c>
     </row>
@@ -8428,11 +8436,11 @@
         <v>1</v>
       </c>
       <c r="F249" s="6">
-        <f t="shared" ref="F249:F280" si="160">B249*2</f>
+        <f t="shared" ref="F249" si="160">B249*2</f>
         <v>37222</v>
       </c>
       <c r="G249" s="6">
-        <f t="shared" ref="G249:G280" si="161">C249*1.5</f>
+        <f t="shared" ref="G249" si="161">C249*1.5</f>
         <v>4158</v>
       </c>
     </row>
@@ -8499,11 +8507,11 @@
         <v>1</v>
       </c>
       <c r="F252" s="6">
-        <f t="shared" ref="F252:F283" si="162">B252*2</f>
+        <f t="shared" ref="F252" si="162">B252*2</f>
         <v>37690</v>
       </c>
       <c r="G252" s="6">
-        <f t="shared" ref="G252:G283" si="163">C252*1.5</f>
+        <f t="shared" ref="G252" si="163">C252*1.5</f>
         <v>4212</v>
       </c>
     </row>
@@ -8570,11 +8578,11 @@
         <v>1</v>
       </c>
       <c r="F255" s="6">
-        <f t="shared" ref="F255:F286" si="164">B255*2</f>
+        <f t="shared" ref="F255" si="164">B255*2</f>
         <v>38158</v>
       </c>
       <c r="G255" s="6">
-        <f t="shared" ref="G255:G286" si="165">C255*1.5</f>
+        <f t="shared" ref="G255" si="165">C255*1.5</f>
         <v>4266</v>
       </c>
     </row>
@@ -8641,11 +8649,11 @@
         <v>1</v>
       </c>
       <c r="F258" s="6">
-        <f t="shared" ref="F258:F289" si="166">B258*2</f>
+        <f t="shared" ref="F258" si="166">B258*2</f>
         <v>38626</v>
       </c>
       <c r="G258" s="6">
-        <f t="shared" ref="G258:G289" si="167">C258*1.5</f>
+        <f t="shared" ref="G258" si="167">C258*1.5</f>
         <v>4320</v>
       </c>
     </row>
@@ -8712,11 +8720,11 @@
         <v>1</v>
       </c>
       <c r="F261" s="6">
-        <f t="shared" ref="F261:F292" si="168">B261*2</f>
+        <f t="shared" ref="F261" si="168">B261*2</f>
         <v>39094</v>
       </c>
       <c r="G261" s="6">
-        <f t="shared" ref="G261:G292" si="169">C261*1.5</f>
+        <f t="shared" ref="G261" si="169">C261*1.5</f>
         <v>4374</v>
       </c>
     </row>
@@ -8783,11 +8791,11 @@
         <v>1</v>
       </c>
       <c r="F264" s="6">
-        <f t="shared" ref="F264:F295" si="170">B264*2</f>
+        <f t="shared" ref="F264" si="170">B264*2</f>
         <v>39562</v>
       </c>
       <c r="G264" s="6">
-        <f t="shared" ref="G264:G295" si="171">C264*1.5</f>
+        <f t="shared" ref="G264" si="171">C264*1.5</f>
         <v>4428</v>
       </c>
     </row>
@@ -8854,11 +8862,11 @@
         <v>1</v>
       </c>
       <c r="F267" s="6">
-        <f t="shared" ref="F267:F298" si="172">B267*2</f>
+        <f t="shared" ref="F267" si="172">B267*2</f>
         <v>40030</v>
       </c>
       <c r="G267" s="6">
-        <f t="shared" ref="G267:G298" si="173">C267*1.5</f>
+        <f t="shared" ref="G267" si="173">C267*1.5</f>
         <v>4482</v>
       </c>
     </row>
@@ -8925,11 +8933,11 @@
         <v>1</v>
       </c>
       <c r="F270" s="6">
-        <f t="shared" ref="F270:F301" si="174">B270*2</f>
+        <f t="shared" ref="F270" si="174">B270*2</f>
         <v>40498</v>
       </c>
       <c r="G270" s="6">
-        <f t="shared" ref="G270:G301" si="175">C270*1.5</f>
+        <f t="shared" ref="G270" si="175">C270*1.5</f>
         <v>4536</v>
       </c>
     </row>
@@ -8996,11 +9004,11 @@
         <v>1</v>
       </c>
       <c r="F273" s="6">
-        <f t="shared" ref="F273:F304" si="176">B273*2</f>
+        <f t="shared" ref="F273" si="176">B273*2</f>
         <v>40966</v>
       </c>
       <c r="G273" s="6">
-        <f t="shared" ref="G273:G304" si="177">C273*1.5</f>
+        <f t="shared" ref="G273" si="177">C273*1.5</f>
         <v>4590</v>
       </c>
     </row>
@@ -9067,11 +9075,11 @@
         <v>1</v>
       </c>
       <c r="F276" s="6">
-        <f t="shared" ref="F276:F307" si="178">B276*2</f>
+        <f t="shared" ref="F276" si="178">B276*2</f>
         <v>41434</v>
       </c>
       <c r="G276" s="6">
-        <f t="shared" ref="G276:G307" si="179">C276*1.5</f>
+        <f t="shared" ref="G276" si="179">C276*1.5</f>
         <v>4644</v>
       </c>
     </row>
@@ -9138,11 +9146,11 @@
         <v>1</v>
       </c>
       <c r="F279" s="6">
-        <f t="shared" ref="F279:F310" si="180">B279*2</f>
+        <f t="shared" ref="F279" si="180">B279*2</f>
         <v>41902</v>
       </c>
       <c r="G279" s="6">
-        <f t="shared" ref="G279:G310" si="181">C279*1.5</f>
+        <f t="shared" ref="G279" si="181">C279*1.5</f>
         <v>4698</v>
       </c>
     </row>
@@ -9209,11 +9217,11 @@
         <v>1</v>
       </c>
       <c r="F282" s="6">
-        <f t="shared" ref="F282:F313" si="182">B282*2</f>
+        <f t="shared" ref="F282" si="182">B282*2</f>
         <v>42370</v>
       </c>
       <c r="G282" s="6">
-        <f t="shared" ref="G282:G313" si="183">C282*1.5</f>
+        <f t="shared" ref="G282" si="183">C282*1.5</f>
         <v>4752</v>
       </c>
     </row>
@@ -9280,11 +9288,11 @@
         <v>1</v>
       </c>
       <c r="F285" s="6">
-        <f t="shared" ref="F285:F316" si="184">B285*2</f>
+        <f t="shared" ref="F285" si="184">B285*2</f>
         <v>42838</v>
       </c>
       <c r="G285" s="6">
-        <f t="shared" ref="G285:G316" si="185">C285*1.5</f>
+        <f t="shared" ref="G285" si="185">C285*1.5</f>
         <v>4806</v>
       </c>
     </row>
@@ -9351,11 +9359,11 @@
         <v>1</v>
       </c>
       <c r="F288" s="6">
-        <f t="shared" ref="F288:F319" si="186">B288*2</f>
+        <f t="shared" ref="F288" si="186">B288*2</f>
         <v>43306</v>
       </c>
       <c r="G288" s="6">
-        <f t="shared" ref="G288:G319" si="187">C288*1.5</f>
+        <f t="shared" ref="G288" si="187">C288*1.5</f>
         <v>4860</v>
       </c>
     </row>
@@ -9422,11 +9430,11 @@
         <v>1</v>
       </c>
       <c r="F291" s="6">
-        <f t="shared" ref="F291:F322" si="188">B291*2</f>
+        <f t="shared" ref="F291" si="188">B291*2</f>
         <v>43774</v>
       </c>
       <c r="G291" s="6">
-        <f t="shared" ref="G291:G322" si="189">C291*1.5</f>
+        <f t="shared" ref="G291" si="189">C291*1.5</f>
         <v>4914</v>
       </c>
     </row>
@@ -9493,11 +9501,11 @@
         <v>1</v>
       </c>
       <c r="F294" s="6">
-        <f t="shared" ref="F294:F325" si="190">B294*2</f>
+        <f t="shared" ref="F294" si="190">B294*2</f>
         <v>44242</v>
       </c>
       <c r="G294" s="6">
-        <f t="shared" ref="G294:G325" si="191">C294*1.5</f>
+        <f t="shared" ref="G294" si="191">C294*1.5</f>
         <v>4968</v>
       </c>
     </row>
@@ -9564,11 +9572,11 @@
         <v>1</v>
       </c>
       <c r="F297" s="6">
-        <f t="shared" ref="F297:F328" si="192">B297*2</f>
+        <f t="shared" ref="F297" si="192">B297*2</f>
         <v>44710</v>
       </c>
       <c r="G297" s="6">
-        <f t="shared" ref="G297:G328" si="193">C297*1.5</f>
+        <f t="shared" ref="G297" si="193">C297*1.5</f>
         <v>5022</v>
       </c>
     </row>
@@ -9635,11 +9643,11 @@
         <v>1</v>
       </c>
       <c r="F300" s="6">
-        <f t="shared" ref="F300:F331" si="194">B300*2</f>
+        <f t="shared" ref="F300" si="194">B300*2</f>
         <v>45178</v>
       </c>
       <c r="G300" s="6">
-        <f t="shared" ref="G300:G331" si="195">C300*1.5</f>
+        <f t="shared" ref="G300" si="195">C300*1.5</f>
         <v>5076</v>
       </c>
     </row>
@@ -9706,11 +9714,11 @@
         <v>1</v>
       </c>
       <c r="F303" s="6">
-        <f t="shared" ref="F303:F334" si="196">B303*2</f>
+        <f t="shared" ref="F303" si="196">B303*2</f>
         <v>45646</v>
       </c>
       <c r="G303" s="6">
-        <f t="shared" ref="G303:G334" si="197">C303*1.5</f>
+        <f t="shared" ref="G303" si="197">C303*1.5</f>
         <v>5130</v>
       </c>
     </row>
@@ -9777,11 +9785,11 @@
         <v>1</v>
       </c>
       <c r="F306" s="6">
-        <f t="shared" ref="F306:F337" si="198">B306*2</f>
+        <f t="shared" ref="F306" si="198">B306*2</f>
         <v>46114</v>
       </c>
       <c r="G306" s="6">
-        <f t="shared" ref="G306:G337" si="199">C306*1.5</f>
+        <f t="shared" ref="G306" si="199">C306*1.5</f>
         <v>5184</v>
       </c>
     </row>
@@ -9848,11 +9856,11 @@
         <v>1</v>
       </c>
       <c r="F309" s="6">
-        <f t="shared" ref="F309:F340" si="200">B309*2</f>
+        <f t="shared" ref="F309" si="200">B309*2</f>
         <v>46582</v>
       </c>
       <c r="G309" s="6">
-        <f t="shared" ref="G309:G340" si="201">C309*1.5</f>
+        <f t="shared" ref="G309" si="201">C309*1.5</f>
         <v>5238</v>
       </c>
     </row>
@@ -9919,11 +9927,11 @@
         <v>1</v>
       </c>
       <c r="F312" s="6">
-        <f t="shared" ref="F312:F343" si="202">B312*2</f>
+        <f t="shared" ref="F312" si="202">B312*2</f>
         <v>47050</v>
       </c>
       <c r="G312" s="6">
-        <f t="shared" ref="G312:G343" si="203">C312*1.5</f>
+        <f t="shared" ref="G312" si="203">C312*1.5</f>
         <v>5292</v>
       </c>
     </row>
@@ -9990,11 +9998,11 @@
         <v>1</v>
       </c>
       <c r="F315" s="6">
-        <f t="shared" ref="F315:F346" si="204">B315*2</f>
+        <f t="shared" ref="F315" si="204">B315*2</f>
         <v>47518</v>
       </c>
       <c r="G315" s="6">
-        <f t="shared" ref="G315:G346" si="205">C315*1.5</f>
+        <f t="shared" ref="G315" si="205">C315*1.5</f>
         <v>5346</v>
       </c>
     </row>
@@ -10061,11 +10069,11 @@
         <v>1</v>
       </c>
       <c r="F318" s="6">
-        <f t="shared" ref="F318:F349" si="206">B318*2</f>
+        <f t="shared" ref="F318" si="206">B318*2</f>
         <v>47986</v>
       </c>
       <c r="G318" s="6">
-        <f t="shared" ref="G318:G349" si="207">C318*1.5</f>
+        <f t="shared" ref="G318" si="207">C318*1.5</f>
         <v>5400</v>
       </c>
     </row>
@@ -10132,11 +10140,11 @@
         <v>1</v>
       </c>
       <c r="F321" s="6">
-        <f t="shared" ref="F321:F352" si="208">B321*2</f>
+        <f t="shared" ref="F321" si="208">B321*2</f>
         <v>48454</v>
       </c>
       <c r="G321" s="6">
-        <f t="shared" ref="G321:G352" si="209">C321*1.5</f>
+        <f t="shared" ref="G321" si="209">C321*1.5</f>
         <v>5454</v>
       </c>
     </row>
@@ -10203,11 +10211,11 @@
         <v>1</v>
       </c>
       <c r="F324" s="6">
-        <f t="shared" ref="F324:F355" si="210">B324*2</f>
+        <f t="shared" ref="F324" si="210">B324*2</f>
         <v>48922</v>
       </c>
       <c r="G324" s="6">
-        <f t="shared" ref="G324:G355" si="211">C324*1.5</f>
+        <f t="shared" ref="G324" si="211">C324*1.5</f>
         <v>5508</v>
       </c>
     </row>
@@ -10274,11 +10282,11 @@
         <v>1</v>
       </c>
       <c r="F327" s="6">
-        <f t="shared" ref="F327:F358" si="212">B327*2</f>
+        <f t="shared" ref="F327" si="212">B327*2</f>
         <v>49390</v>
       </c>
       <c r="G327" s="6">
-        <f t="shared" ref="G327:G358" si="213">C327*1.5</f>
+        <f t="shared" ref="G327" si="213">C327*1.5</f>
         <v>5562</v>
       </c>
     </row>
@@ -10345,11 +10353,11 @@
         <v>1</v>
       </c>
       <c r="F330" s="6">
-        <f t="shared" ref="F330:F361" si="214">B330*2</f>
+        <f t="shared" ref="F330" si="214">B330*2</f>
         <v>49858</v>
       </c>
       <c r="G330" s="6">
-        <f t="shared" ref="G330:G361" si="215">C330*1.5</f>
+        <f t="shared" ref="G330" si="215">C330*1.5</f>
         <v>5616</v>
       </c>
     </row>
@@ -10416,11 +10424,11 @@
         <v>1</v>
       </c>
       <c r="F333" s="6">
-        <f t="shared" ref="F333:F364" si="216">B333*2</f>
+        <f t="shared" ref="F333" si="216">B333*2</f>
         <v>50326</v>
       </c>
       <c r="G333" s="6">
-        <f t="shared" ref="G333:G364" si="217">C333*1.5</f>
+        <f t="shared" ref="G333" si="217">C333*1.5</f>
         <v>5670</v>
       </c>
     </row>
@@ -10487,11 +10495,11 @@
         <v>1</v>
       </c>
       <c r="F336" s="6">
-        <f t="shared" ref="F336:F367" si="218">B336*2</f>
+        <f t="shared" ref="F336" si="218">B336*2</f>
         <v>50794</v>
       </c>
       <c r="G336" s="6">
-        <f t="shared" ref="G336:G367" si="219">C336*1.5</f>
+        <f t="shared" ref="G336" si="219">C336*1.5</f>
         <v>5724</v>
       </c>
     </row>
@@ -10558,11 +10566,11 @@
         <v>1</v>
       </c>
       <c r="F339" s="6">
-        <f t="shared" ref="F339:F370" si="220">B339*2</f>
+        <f t="shared" ref="F339" si="220">B339*2</f>
         <v>51262</v>
       </c>
       <c r="G339" s="6">
-        <f t="shared" ref="G339:G370" si="221">C339*1.5</f>
+        <f t="shared" ref="G339" si="221">C339*1.5</f>
         <v>5778</v>
       </c>
     </row>
@@ -10629,11 +10637,11 @@
         <v>1</v>
       </c>
       <c r="F342" s="6">
-        <f t="shared" ref="F342:F373" si="222">B342*2</f>
+        <f t="shared" ref="F342" si="222">B342*2</f>
         <v>51730</v>
       </c>
       <c r="G342" s="6">
-        <f t="shared" ref="G342:G373" si="223">C342*1.5</f>
+        <f t="shared" ref="G342" si="223">C342*1.5</f>
         <v>5832</v>
       </c>
     </row>
@@ -10700,11 +10708,11 @@
         <v>1</v>
       </c>
       <c r="F345" s="6">
-        <f t="shared" ref="F345:F376" si="224">B345*2</f>
+        <f t="shared" ref="F345" si="224">B345*2</f>
         <v>52198</v>
       </c>
       <c r="G345" s="6">
-        <f t="shared" ref="G345:G376" si="225">C345*1.5</f>
+        <f t="shared" ref="G345" si="225">C345*1.5</f>
         <v>5886</v>
       </c>
     </row>
@@ -10771,11 +10779,11 @@
         <v>1</v>
       </c>
       <c r="F348" s="6">
-        <f t="shared" ref="F348:F379" si="226">B348*2</f>
+        <f t="shared" ref="F348" si="226">B348*2</f>
         <v>52666</v>
       </c>
       <c r="G348" s="6">
-        <f t="shared" ref="G348:G379" si="227">C348*1.5</f>
+        <f t="shared" ref="G348" si="227">C348*1.5</f>
         <v>5940</v>
       </c>
     </row>
@@ -10842,11 +10850,11 @@
         <v>1</v>
       </c>
       <c r="F351" s="6">
-        <f t="shared" ref="F351:F382" si="228">B351*2</f>
+        <f t="shared" ref="F351" si="228">B351*2</f>
         <v>53134</v>
       </c>
       <c r="G351" s="6">
-        <f t="shared" ref="G351:G382" si="229">C351*1.5</f>
+        <f t="shared" ref="G351" si="229">C351*1.5</f>
         <v>5994</v>
       </c>
     </row>
@@ -10913,11 +10921,11 @@
         <v>1</v>
       </c>
       <c r="F354" s="6">
-        <f t="shared" ref="F354:F385" si="230">B354*2</f>
+        <f t="shared" ref="F354" si="230">B354*2</f>
         <v>53602</v>
       </c>
       <c r="G354" s="6">
-        <f t="shared" ref="G354:G385" si="231">C354*1.5</f>
+        <f t="shared" ref="G354" si="231">C354*1.5</f>
         <v>6048</v>
       </c>
     </row>
@@ -10984,11 +10992,11 @@
         <v>1</v>
       </c>
       <c r="F357" s="6">
-        <f t="shared" ref="F357:F403" si="232">B357*2</f>
+        <f t="shared" ref="F357" si="232">B357*2</f>
         <v>54070</v>
       </c>
       <c r="G357" s="6">
-        <f t="shared" ref="G357:G403" si="233">C357*1.5</f>
+        <f t="shared" ref="G357" si="233">C357*1.5</f>
         <v>6102</v>
       </c>
     </row>
@@ -11055,11 +11063,11 @@
         <v>1</v>
       </c>
       <c r="F360" s="6">
-        <f t="shared" ref="F360:F403" si="234">B360*2</f>
+        <f t="shared" ref="F360" si="234">B360*2</f>
         <v>54538</v>
       </c>
       <c r="G360" s="6">
-        <f t="shared" ref="G360:G403" si="235">C360*1.5</f>
+        <f t="shared" ref="G360" si="235">C360*1.5</f>
         <v>6156</v>
       </c>
     </row>
@@ -11126,11 +11134,11 @@
         <v>1</v>
       </c>
       <c r="F363" s="6">
-        <f t="shared" ref="F363:F403" si="236">B363*2</f>
+        <f t="shared" ref="F363" si="236">B363*2</f>
         <v>55006</v>
       </c>
       <c r="G363" s="6">
-        <f t="shared" ref="G363:G403" si="237">C363*1.5</f>
+        <f t="shared" ref="G363" si="237">C363*1.5</f>
         <v>6210</v>
       </c>
     </row>
@@ -11197,11 +11205,11 @@
         <v>1</v>
       </c>
       <c r="F366" s="6">
-        <f t="shared" ref="F366:F403" si="238">B366*2</f>
+        <f t="shared" ref="F366" si="238">B366*2</f>
         <v>55474</v>
       </c>
       <c r="G366" s="6">
-        <f t="shared" ref="G366:G403" si="239">C366*1.5</f>
+        <f t="shared" ref="G366" si="239">C366*1.5</f>
         <v>6264</v>
       </c>
     </row>
@@ -11268,11 +11276,11 @@
         <v>1</v>
       </c>
       <c r="F369" s="6">
-        <f t="shared" ref="F369:F403" si="240">B369*2</f>
+        <f t="shared" ref="F369" si="240">B369*2</f>
         <v>55942</v>
       </c>
       <c r="G369" s="6">
-        <f t="shared" ref="G369:G403" si="241">C369*1.5</f>
+        <f t="shared" ref="G369" si="241">C369*1.5</f>
         <v>6318</v>
       </c>
     </row>
@@ -11339,11 +11347,11 @@
         <v>1</v>
       </c>
       <c r="F372" s="6">
-        <f t="shared" ref="F372:F403" si="242">B372*2</f>
+        <f t="shared" ref="F372" si="242">B372*2</f>
         <v>56410</v>
       </c>
       <c r="G372" s="6">
-        <f t="shared" ref="G372:G403" si="243">C372*1.5</f>
+        <f t="shared" ref="G372" si="243">C372*1.5</f>
         <v>6372</v>
       </c>
     </row>
@@ -11410,11 +11418,11 @@
         <v>1</v>
       </c>
       <c r="F375" s="6">
-        <f t="shared" ref="F375:F403" si="244">B375*2</f>
+        <f t="shared" ref="F375" si="244">B375*2</f>
         <v>56878</v>
       </c>
       <c r="G375" s="6">
-        <f t="shared" ref="G375:G403" si="245">C375*1.5</f>
+        <f t="shared" ref="G375" si="245">C375*1.5</f>
         <v>6426</v>
       </c>
     </row>
@@ -11481,11 +11489,11 @@
         <v>1</v>
       </c>
       <c r="F378" s="6">
-        <f t="shared" ref="F378:F403" si="246">B378*2</f>
+        <f t="shared" ref="F378" si="246">B378*2</f>
         <v>57346</v>
       </c>
       <c r="G378" s="6">
-        <f t="shared" ref="G378:G403" si="247">C378*1.5</f>
+        <f t="shared" ref="G378" si="247">C378*1.5</f>
         <v>6480</v>
       </c>
     </row>
@@ -11552,11 +11560,11 @@
         <v>1</v>
       </c>
       <c r="F381" s="6">
-        <f t="shared" ref="F381:F403" si="248">B381*2</f>
+        <f t="shared" ref="F381" si="248">B381*2</f>
         <v>57814</v>
       </c>
       <c r="G381" s="6">
-        <f t="shared" ref="G381:G403" si="249">C381*1.5</f>
+        <f t="shared" ref="G381" si="249">C381*1.5</f>
         <v>6534</v>
       </c>
     </row>
@@ -11623,11 +11631,11 @@
         <v>1</v>
       </c>
       <c r="F384" s="6">
-        <f t="shared" ref="F384:F403" si="250">B384*2</f>
+        <f t="shared" ref="F384" si="250">B384*2</f>
         <v>58282</v>
       </c>
       <c r="G384" s="6">
-        <f t="shared" ref="G384:G403" si="251">C384*1.5</f>
+        <f t="shared" ref="G384" si="251">C384*1.5</f>
         <v>6588</v>
       </c>
     </row>
@@ -11694,11 +11702,11 @@
         <v>1</v>
       </c>
       <c r="F387" s="6">
-        <f t="shared" ref="F387:F403" si="252">B387*2</f>
+        <f t="shared" ref="F387" si="252">B387*2</f>
         <v>58750</v>
       </c>
       <c r="G387" s="6">
-        <f t="shared" ref="G387:G403" si="253">C387*1.5</f>
+        <f t="shared" ref="G387" si="253">C387*1.5</f>
         <v>6642</v>
       </c>
     </row>
@@ -11765,11 +11773,11 @@
         <v>1</v>
       </c>
       <c r="F390" s="6">
-        <f t="shared" ref="F390:F403" si="254">B390*2</f>
+        <f t="shared" ref="F390" si="254">B390*2</f>
         <v>59218</v>
       </c>
       <c r="G390" s="6">
-        <f t="shared" ref="G390:G403" si="255">C390*1.5</f>
+        <f t="shared" ref="G390" si="255">C390*1.5</f>
         <v>6696</v>
       </c>
     </row>
@@ -11836,11 +11844,11 @@
         <v>1</v>
       </c>
       <c r="F393" s="6">
-        <f t="shared" ref="F393:F403" si="256">B393*2</f>
+        <f t="shared" ref="F393" si="256">B393*2</f>
         <v>59686</v>
       </c>
       <c r="G393" s="6">
-        <f t="shared" ref="G393:G403" si="257">C393*1.5</f>
+        <f t="shared" ref="G393" si="257">C393*1.5</f>
         <v>6750</v>
       </c>
     </row>
@@ -11907,11 +11915,11 @@
         <v>1</v>
       </c>
       <c r="F396" s="6">
-        <f t="shared" ref="F396:F403" si="258">B396*2</f>
+        <f t="shared" ref="F396" si="258">B396*2</f>
         <v>60154</v>
       </c>
       <c r="G396" s="6">
-        <f t="shared" ref="G396:G403" si="259">C396*1.5</f>
+        <f t="shared" ref="G396" si="259">C396*1.5</f>
         <v>6804</v>
       </c>
     </row>
@@ -11978,11 +11986,11 @@
         <v>1</v>
       </c>
       <c r="F399" s="6">
-        <f t="shared" ref="F399:F403" si="260">B399*2</f>
+        <f t="shared" ref="F399" si="260">B399*2</f>
         <v>60622</v>
       </c>
       <c r="G399" s="6">
-        <f t="shared" ref="G399:G403" si="261">C399*1.5</f>
+        <f t="shared" ref="G399" si="261">C399*1.5</f>
         <v>6858</v>
       </c>
     </row>
@@ -12049,11 +12057,11 @@
         <v>1</v>
       </c>
       <c r="F402" s="6">
-        <f t="shared" ref="F402:F403" si="262">B402*2</f>
+        <f t="shared" ref="F402" si="262">B402*2</f>
         <v>61090</v>
       </c>
       <c r="G402" s="6">
-        <f t="shared" ref="G402:G403" si="263">C402*1.5</f>
+        <f t="shared" ref="G402" si="263">C402*1.5</f>
         <v>6912</v>
       </c>
     </row>
@@ -13884,7 +13892,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13945,10 +13953,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
         <v>12</v>
@@ -13960,11 +13968,11 @@
       </c>
       <c r="B5" s="7">
         <f t="shared" ref="B5:B63" si="0">ROUND($B$4 * EXP(0.055 * (A5 - 1)), 0)</f>
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C63" si="1">ROUND($C$4 * EXP(0.055 * (A5 - 1)), 0)</f>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
         <v>12</v>
@@ -13976,11 +13984,11 @@
       </c>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
         <v>12</v>
@@ -13992,11 +14000,11 @@
       </c>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
         <v>12</v>
@@ -14008,11 +14016,11 @@
       </c>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
         <v>12</v>
@@ -14024,11 +14032,11 @@
       </c>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
         <v>12</v>
@@ -14040,11 +14048,11 @@
       </c>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
         <v>12</v>
@@ -14056,11 +14064,11 @@
       </c>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>132</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
         <v>12</v>
@@ -14072,11 +14080,11 @@
       </c>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>140</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
         <v>12</v>
@@ -14088,11 +14096,11 @@
       </c>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>148</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
         <v>12</v>
@@ -14104,11 +14112,11 @@
       </c>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>156</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
         <v>12</v>
@@ -14120,11 +14128,11 @@
       </c>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>165</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7">
         <v>12</v>
@@ -14136,11 +14144,11 @@
       </c>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
-        <v>387</v>
+        <v>174</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
         <v>12</v>
@@ -14152,11 +14160,11 @@
       </c>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>184</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
         <v>12</v>
@@ -14168,11 +14176,11 @@
       </c>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>194</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D18" s="7">
         <v>12</v>
@@ -14184,11 +14192,11 @@
       </c>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>205</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
         <v>15</v>
@@ -14200,11 +14208,11 @@
       </c>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
-        <v>482</v>
+        <v>217</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D20" s="7">
         <v>15</v>
@@ -14216,11 +14224,11 @@
       </c>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
-        <v>509</v>
+        <v>229</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D21" s="7">
         <v>15</v>
@@ -14232,11 +14240,11 @@
       </c>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
-        <v>538</v>
+        <v>242</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
         <v>15</v>
@@ -14248,11 +14256,11 @@
       </c>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
-        <v>569</v>
+        <v>256</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D23" s="7">
         <v>15</v>
@@ -14264,11 +14272,11 @@
       </c>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
-        <v>601</v>
+        <v>270</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7">
         <v>15</v>
@@ -14280,11 +14288,11 @@
       </c>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
-        <v>635</v>
+        <v>286</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7">
         <v>15</v>
@@ -14296,11 +14304,11 @@
       </c>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
-        <v>671</v>
+        <v>302</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D26" s="7">
         <v>15</v>
@@ -14312,11 +14320,11 @@
       </c>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
-        <v>709</v>
+        <v>319</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D27" s="7">
         <v>15</v>
@@ -14328,11 +14336,11 @@
       </c>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
-        <v>749</v>
+        <v>337</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D28" s="7">
         <v>15</v>
@@ -14344,11 +14352,11 @@
       </c>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
-        <v>791</v>
+        <v>356</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7">
         <v>15</v>
@@ -14360,11 +14368,11 @@
       </c>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
-        <v>836</v>
+        <v>376</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D30" s="7">
         <v>15</v>
@@ -14376,11 +14384,11 @@
       </c>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
-        <v>883</v>
+        <v>397</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D31" s="7">
         <v>15</v>
@@ -14392,11 +14400,11 @@
       </c>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
-        <v>933</v>
+        <v>420</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D32" s="7">
         <v>15</v>
@@ -14408,11 +14416,11 @@
       </c>
       <c r="B33" s="7">
         <f t="shared" si="0"/>
-        <v>986</v>
+        <v>444</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D33" s="7">
         <v>15</v>
@@ -14424,11 +14432,11 @@
       </c>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
-        <v>1041</v>
+        <v>469</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D34" s="7">
         <v>23</v>
@@ -14440,11 +14448,11 @@
       </c>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>495</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D35" s="7">
         <v>23</v>
@@ -14456,11 +14464,11 @@
       </c>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
-        <v>1162</v>
+        <v>523</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="D36" s="7">
         <v>23</v>
@@ -14472,11 +14480,11 @@
       </c>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
-        <v>1228</v>
+        <v>553</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D37" s="7">
         <v>23</v>
@@ -14488,11 +14496,11 @@
       </c>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
-        <v>1298</v>
+        <v>584</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="D38" s="7">
         <v>23</v>
@@ -14504,11 +14512,11 @@
       </c>
       <c r="B39" s="7">
         <f t="shared" si="0"/>
-        <v>1371</v>
+        <v>617</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="D39" s="7">
         <v>23</v>
@@ -14520,11 +14528,11 @@
       </c>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
-        <v>1449</v>
+        <v>652</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="1"/>
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="D40" s="7">
         <v>23</v>
@@ -14536,11 +14544,11 @@
       </c>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
-        <v>1530</v>
+        <v>689</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="D41" s="7">
         <v>23</v>
@@ -14552,11 +14560,11 @@
       </c>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
-        <v>1617</v>
+        <v>728</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="1"/>
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="D42" s="7">
         <v>23</v>
@@ -14568,11 +14576,11 @@
       </c>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
-        <v>1708</v>
+        <v>769</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="1"/>
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="D43" s="7">
         <v>23</v>
@@ -14584,11 +14592,11 @@
       </c>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
-        <v>1805</v>
+        <v>812</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="1"/>
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="D44" s="7">
         <v>23</v>
@@ -14600,11 +14608,11 @@
       </c>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
-        <v>1907</v>
+        <v>858</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="1"/>
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="D45" s="7">
         <v>23</v>
@@ -14616,11 +14624,11 @@
       </c>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>907</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="1"/>
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="D46" s="7">
         <v>23</v>
@@ -14632,11 +14640,11 @@
       </c>
       <c r="B47" s="7">
         <f t="shared" si="0"/>
-        <v>2129</v>
+        <v>958</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="1"/>
-        <v>213</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" customHeight="1">
@@ -14645,11 +14653,11 @@
       </c>
       <c r="B48" s="7">
         <f t="shared" si="0"/>
-        <v>2249</v>
+        <v>1012</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="D48" s="7">
         <v>23</v>
@@ -14661,11 +14669,11 @@
       </c>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
-        <v>2376</v>
+        <v>1069</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="D49" s="7">
         <v>27</v>
@@ -14677,11 +14685,11 @@
       </c>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
-        <v>2511</v>
+        <v>1130</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="1"/>
-        <v>251</v>
+        <v>113</v>
       </c>
       <c r="D50" s="7">
         <v>27</v>
@@ -14693,11 +14701,11 @@
       </c>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
-        <v>2653</v>
+        <v>1194</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="1"/>
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="D51" s="7">
         <v>27</v>
@@ -14709,11 +14717,11 @@
       </c>
       <c r="B52" s="7">
         <f t="shared" si="0"/>
-        <v>2803</v>
+        <v>1261</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="D52" s="7">
         <v>27</v>
@@ -14725,11 +14733,11 @@
       </c>
       <c r="B53" s="7">
         <f t="shared" si="0"/>
-        <v>2961</v>
+        <v>1332</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="1"/>
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="D53" s="7">
         <v>27</v>
@@ -14741,11 +14749,11 @@
       </c>
       <c r="B54" s="7">
         <f t="shared" si="0"/>
-        <v>3129</v>
+        <v>1408</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="1"/>
-        <v>313</v>
+        <v>141</v>
       </c>
       <c r="D54" s="7">
         <v>27</v>
@@ -14757,11 +14765,11 @@
       </c>
       <c r="B55" s="7">
         <f t="shared" si="0"/>
-        <v>3305</v>
+        <v>1487</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="1"/>
-        <v>331</v>
+        <v>149</v>
       </c>
       <c r="D55" s="7">
         <v>27</v>
@@ -14773,11 +14781,11 @@
       </c>
       <c r="B56" s="7">
         <f t="shared" si="0"/>
-        <v>3492</v>
+        <v>1572</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="1"/>
-        <v>349</v>
+        <v>157</v>
       </c>
       <c r="D56" s="7">
         <v>27</v>
@@ -14789,11 +14797,11 @@
       </c>
       <c r="B57" s="7">
         <f t="shared" si="0"/>
-        <v>3690</v>
+        <v>1660</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="1"/>
-        <v>369</v>
+        <v>166</v>
       </c>
       <c r="D57" s="7">
         <v>27</v>
@@ -14805,11 +14813,11 @@
       </c>
       <c r="B58" s="7">
         <f t="shared" si="0"/>
-        <v>3898</v>
+        <v>1754</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="1"/>
-        <v>390</v>
+        <v>175</v>
       </c>
       <c r="D58" s="7">
         <v>27</v>
@@ -14821,11 +14829,11 @@
       </c>
       <c r="B59" s="7">
         <f t="shared" si="0"/>
-        <v>4119</v>
+        <v>1853</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="1"/>
-        <v>412</v>
+        <v>185</v>
       </c>
       <c r="D59" s="7">
         <v>27</v>
@@ -14837,11 +14845,11 @@
       </c>
       <c r="B60" s="7">
         <f t="shared" si="0"/>
-        <v>4352</v>
+        <v>1958</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="1"/>
-        <v>435</v>
+        <v>196</v>
       </c>
       <c r="D60" s="7">
         <v>27</v>
@@ -14853,11 +14861,11 @@
       </c>
       <c r="B61" s="7">
         <f t="shared" si="0"/>
-        <v>4598</v>
+        <v>2069</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>207</v>
       </c>
       <c r="D61" s="7">
         <v>27</v>
@@ -14869,11 +14877,11 @@
       </c>
       <c r="B62" s="7">
         <f t="shared" si="0"/>
-        <v>4858</v>
+        <v>2186</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>219</v>
       </c>
       <c r="D62" s="7">
         <v>27</v>
@@ -14888,11 +14896,11 @@
       </c>
       <c r="B63" s="7">
         <f t="shared" si="0"/>
-        <v>5132</v>
+        <v>2310</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="1"/>
-        <v>513</v>
+        <v>231</v>
       </c>
       <c r="D63" s="7">
         <v>27</v>
@@ -24579,11 +24587,11 @@
       </c>
       <c r="B4" s="7">
         <f>ROUND((VLOOKUP(A4,일반몬스터!A:B,2,FALSE)) * IF(ROW(A4)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>379</v>
+        <v>170</v>
       </c>
       <c r="C4" s="7">
         <f>ROUND((VLOOKUP(A4,일반몬스터!A:C,3,FALSE)) * IF(ROW(A4)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
@@ -24592,11 +24600,11 @@
       </c>
       <c r="B5" s="7">
         <f>ROUND((VLOOKUP(A5,일반몬스터!A:B,2,FALSE)) * IF(ROW(A5)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>447</v>
+        <v>201</v>
       </c>
       <c r="C5" s="7">
         <f>ROUND((VLOOKUP(A5,일반몬스터!A:C,3,FALSE)) * IF(ROW(A5)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
@@ -24605,11 +24613,11 @@
       </c>
       <c r="B6" s="7">
         <f>ROUND((VLOOKUP(A6,일반몬스터!A:B,2,FALSE)) * IF(ROW(A6)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>560</v>
+        <v>252</v>
       </c>
       <c r="C6" s="7">
         <f>ROUND((VLOOKUP(A6,일반몬스터!A:C,3,FALSE)) * IF(ROW(A6)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
@@ -24618,11 +24626,11 @@
       </c>
       <c r="B7" s="7">
         <f>ROUND((VLOOKUP(A7,일반몬스터!A:B,2,FALSE)) * IF(ROW(A7)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>695</v>
+        <v>314</v>
       </c>
       <c r="C7" s="7">
         <f>ROUND((VLOOKUP(A7,일반몬스터!A:C,3,FALSE)) * IF(ROW(A7)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1">
@@ -24631,11 +24639,11 @@
       </c>
       <c r="B8" s="7">
         <f>ROUND((VLOOKUP(A8,일반몬스터!A:B,2,FALSE)) * IF(ROW(A8)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>864</v>
+        <v>388</v>
       </c>
       <c r="C8" s="7">
         <f>ROUND((VLOOKUP(A8,일반몬스터!A:C,3,FALSE)) * IF(ROW(A8)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1">
@@ -24644,11 +24652,11 @@
       </c>
       <c r="B9" s="7">
         <f>ROUND((VLOOKUP(A9,일반몬스터!A:B,2,FALSE)) * IF(ROW(A9)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>1069</v>
+        <v>481</v>
       </c>
       <c r="C9" s="7">
         <f>ROUND((VLOOKUP(A9,일반몬스터!A:C,3,FALSE)) * IF(ROW(A9)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>122</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1">
@@ -24657,11 +24665,11 @@
       </c>
       <c r="B10" s="7">
         <f>ROUND((VLOOKUP(A10,일반몬스터!A:B,2,FALSE)) * IF(ROW(A10)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>1262</v>
+        <v>567</v>
       </c>
       <c r="C10" s="7">
         <f>ROUND((VLOOKUP(A10,일반몬스터!A:C,3,FALSE)) * IF(ROW(A10)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>144</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1">
@@ -24670,11 +24678,11 @@
       </c>
       <c r="B11" s="7">
         <f>ROUND((VLOOKUP(A11,일반몬스터!A:B,2,FALSE)) * IF(ROW(A11)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>1560</v>
+        <v>702</v>
       </c>
       <c r="C11" s="7">
         <f>ROUND((VLOOKUP(A11,일반몬스터!A:C,3,FALSE)) * IF(ROW(A11)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>178</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
@@ -24683,11 +24691,11 @@
       </c>
       <c r="B12" s="7">
         <f>ROUND((VLOOKUP(A12,일반몬스터!A:B,2,FALSE)) * IF(ROW(A12)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>1923</v>
+        <v>865</v>
       </c>
       <c r="C12" s="7">
         <f>ROUND((VLOOKUP(A12,일반몬스터!A:C,3,FALSE)) * IF(ROW(A12)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>210</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1">
@@ -24696,11 +24704,11 @@
       </c>
       <c r="B13" s="7">
         <f>ROUND((VLOOKUP(A13,일반몬스터!A:B,2,FALSE)) * IF(ROW(A13)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>2366</v>
+        <v>1066</v>
       </c>
       <c r="C13" s="7">
         <f>ROUND((VLOOKUP(A13,일반몬스터!A:C,3,FALSE)) * IF(ROW(A13)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>257</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
@@ -24709,11 +24717,11 @@
       </c>
       <c r="B14" s="7">
         <f>ROUND((VLOOKUP(A14,일반몬스터!A:B,2,FALSE)) * IF(ROW(A14)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>2789</v>
+        <v>1255</v>
       </c>
       <c r="C14" s="7">
         <f>ROUND((VLOOKUP(A14,일반몬스터!A:C,3,FALSE)) * IF(ROW(A14)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>302</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
@@ -24722,11 +24730,11 @@
       </c>
       <c r="B15" s="7">
         <f>ROUND((VLOOKUP(A15,일반몬스터!A:B,2,FALSE)) * IF(ROW(A15)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>3428</v>
+        <v>1543</v>
       </c>
       <c r="C15" s="7">
         <f>ROUND((VLOOKUP(A15,일반몬스터!A:C,3,FALSE)) * IF(ROW(A15)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>370</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
@@ -24735,11 +24743,11 @@
       </c>
       <c r="B16" s="7">
         <f>ROUND((VLOOKUP(A16,일반몬스터!A:B,2,FALSE)) * IF(ROW(A16)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>4204</v>
+        <v>1893</v>
       </c>
       <c r="C16" s="7">
         <f>ROUND((VLOOKUP(A16,일반몬스터!A:C,3,FALSE)) * IF(ROW(A16)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>437</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
@@ -24748,11 +24756,11 @@
       </c>
       <c r="B17" s="7">
         <f>ROUND((VLOOKUP(A17,일반몬스터!A:B,2,FALSE)) * IF(ROW(A17)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>5149</v>
+        <v>2317</v>
       </c>
       <c r="C17" s="7">
         <f>ROUND((VLOOKUP(A17,일반몬스터!A:C,3,FALSE)) * IF(ROW(A17)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>535</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1">
@@ -24761,11 +24769,11 @@
       </c>
       <c r="B18" s="7">
         <f>ROUND((VLOOKUP(A18,일반몬스터!A:B,2,FALSE)) * IF(ROW(A18)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>6297</v>
+        <v>2834</v>
       </c>
       <c r="C18" s="7">
         <f>ROUND((VLOOKUP(A18,일반몬스터!A:C,3,FALSE)) * IF(ROW(A18)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>630</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
@@ -24774,11 +24782,11 @@
       </c>
       <c r="B19" s="7">
         <f>ROUND((VLOOKUP(A19,일반몬스터!A:B,2,FALSE)) * IF(ROW(A19)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>7428</v>
+        <v>3343</v>
       </c>
       <c r="C19" s="7">
         <f>ROUND((VLOOKUP(A19,일반몬스터!A:C,3,FALSE)) * IF(ROW(A19)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>769</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1">
@@ -24787,11 +24795,11 @@
       </c>
       <c r="B20" s="7">
         <f>ROUND((VLOOKUP(A20,일반몬스터!A:B,2,FALSE)) * IF(ROW(A20)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>9074</v>
+        <v>4083</v>
       </c>
       <c r="C20" s="7">
         <f>ROUND((VLOOKUP(A20,일반몬스터!A:C,3,FALSE)) * IF(ROW(A20)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>908</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1">
@@ -24800,11 +24808,11 @@
       </c>
       <c r="B21" s="7">
         <f>ROUND((VLOOKUP(A21,일반몬스터!A:B,2,FALSE)) * IF(ROW(A21)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>11070</v>
+        <v>4980</v>
       </c>
       <c r="C21" s="7">
         <f>ROUND((VLOOKUP(A21,일반몬스터!A:C,3,FALSE)) * IF(ROW(A21)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>1107</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
@@ -24813,11 +24821,11 @@
       </c>
       <c r="B22" s="7">
         <f>ROUND((VLOOKUP(A22,일반몬스터!A:B,2,FALSE)) * IF(ROW(A22)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>13056</v>
+        <v>5874</v>
       </c>
       <c r="C22" s="7">
         <f>ROUND((VLOOKUP(A22,일반몬스터!A:C,3,FALSE)) * IF(ROW(A22)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>1305</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1">
@@ -24826,11 +24834,11 @@
       </c>
       <c r="B23" s="7">
         <f>ROUND((VLOOKUP(A23,일반몬스터!A:B,2,FALSE)) * IF(ROW(A23)&lt;=21, ROUND(1.5+(3-1.5)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>15396</v>
+        <v>6930</v>
       </c>
       <c r="C23" s="7">
         <f>ROUND((VLOOKUP(A23,일반몬스터!A:C,3,FALSE)) * IF(ROW(A23)&lt;=21, ROUND(2+(3-2)*(ROW()-2)/(21-2),1), 3), 0)</f>
-        <v>1539</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1">
